--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.35660115925584</v>
+        <v>21.35660115925574</v>
       </c>
       <c r="C2">
-        <v>15.06833982019479</v>
+        <v>15.06833982019472</v>
       </c>
       <c r="D2">
-        <v>6.823018132108021</v>
+        <v>6.823018132108139</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.18617942807306</v>
+        <v>63.18617942807268</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.96141808268092</v>
+        <v>11.9614180826809</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.54505481258818</v>
+        <v>18.54505481258815</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7487543749562</v>
+        <v>19.74875437495621</v>
       </c>
       <c r="C3">
-        <v>13.94873141042788</v>
+        <v>13.94873141042785</v>
       </c>
       <c r="D3">
-        <v>6.488326733826558</v>
+        <v>6.48832673382668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.20839178905845</v>
+        <v>59.20839178905853</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.18241440044726</v>
+        <v>17.18241440044727</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7201703056014</v>
+        <v>18.72017030560136</v>
       </c>
       <c r="C4">
-        <v>13.23443732978478</v>
+        <v>13.2344373297847</v>
       </c>
       <c r="D4">
-        <v>6.280089547831869</v>
+        <v>6.280089547831902</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.70238893766138</v>
+        <v>56.70238893766125</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.97869814504349</v>
+        <v>10.97869814504355</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.31141506827745</v>
+        <v>16.31141506827735</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29021887252396</v>
+        <v>18.29021887252391</v>
       </c>
       <c r="C5">
-        <v>12.93627840939488</v>
+        <v>12.93627840939504</v>
       </c>
       <c r="D5">
-        <v>6.194507030285865</v>
+        <v>6.194507030285808</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.66503191869548</v>
+        <v>55.66503191869554</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.82521380567844</v>
+        <v>10.82521380567848</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.94748653642253</v>
+        <v>15.94748653642244</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21816307390169</v>
+        <v>18.21816307390179</v>
       </c>
       <c r="C6">
-        <v>12.8863329682838</v>
+        <v>12.88633296828389</v>
       </c>
       <c r="D6">
-        <v>6.180251696395278</v>
+        <v>6.180251696395231</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49180579178592</v>
+        <v>55.49180579178604</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.79969502369571</v>
+        <v>10.79969502369569</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.88650388078061</v>
+        <v>15.8865038807807</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71441602870114</v>
+        <v>18.71441602870107</v>
       </c>
       <c r="C7">
-        <v>13.23044531976252</v>
+        <v>13.23044531976235</v>
       </c>
       <c r="D7">
-        <v>6.278938317834</v>
+        <v>6.278938317834171</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.68846412153401</v>
+        <v>56.68846412153411</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.97663043286138</v>
+        <v>10.97663043286136</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.30654384043778</v>
+        <v>16.30654384043772</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>20.81054712935646</v>
       </c>
       <c r="C8">
-        <v>14.6876628360665</v>
+        <v>14.68766283606663</v>
       </c>
       <c r="D8">
-        <v>6.708155831670501</v>
+        <v>6.70815583167056</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.82767311859555</v>
+        <v>61.82767311859572</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.75243154397822</v>
+        <v>11.7524315439782</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.08211476432785</v>
+        <v>18.08211476432792</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.61353677825986</v>
+        <v>24.61353677825997</v>
       </c>
       <c r="C9">
-        <v>17.34927332879095</v>
+        <v>17.34927332879099</v>
       </c>
       <c r="D9">
-        <v>7.531021332204216</v>
+        <v>7.531021332204273</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.42248159238896</v>
+        <v>71.42248159238893</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.25790031630722</v>
+        <v>13.2579003163072</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.25442825308951</v>
+        <v>27.25442825308976</v>
       </c>
       <c r="C10">
         <v>19.21365066812824</v>
       </c>
       <c r="D10">
-        <v>8.130279348392175</v>
+        <v>8.130279348392278</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.23147315391304</v>
+        <v>78.23147315391365</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.36196877897242</v>
+        <v>14.36196877897249</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.55780812242831</v>
+        <v>23.55780812242838</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43229939476486</v>
+        <v>28.43229939476505</v>
       </c>
       <c r="C11">
-        <v>20.05009900806645</v>
+        <v>20.05009900806646</v>
       </c>
       <c r="D11">
-        <v>8.403869876217286</v>
+        <v>8.403869876217334</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.29663411448976</v>
+        <v>81.29663411449035</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.86704971330343</v>
+        <v>14.86704971330347</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.56213562311747</v>
+        <v>24.56213562311759</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.87598016254049</v>
+        <v>28.87598016254032</v>
       </c>
       <c r="C12">
-        <v>20.36602241403732</v>
+        <v>20.36602241403704</v>
       </c>
       <c r="D12">
-        <v>8.507859500497245</v>
+        <v>8.507859500497052</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.45500209005408</v>
+        <v>82.45500209005343</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.05912388344251</v>
+        <v>15.05912388344239</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.94076434354812</v>
+        <v>24.94076434354798</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.78051145027571</v>
+        <v>28.7805114502756</v>
       </c>
       <c r="C13">
-        <v>20.29800342420559</v>
+        <v>20.29800342420557</v>
       </c>
       <c r="D13">
-        <v>8.485441612641434</v>
+        <v>8.48544161264136</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.20558727378203</v>
+        <v>82.20558727378146</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.01771335013368</v>
+        <v>15.01771335013365</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.85927803407573</v>
+        <v>24.85927803407574</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.468841761667</v>
+        <v>28.46884176166722</v>
       </c>
       <c r="C14">
-        <v>20.07610107336049</v>
+        <v>20.07610107336069</v>
       </c>
       <c r="D14">
-        <v>8.412415759794055</v>
+        <v>8.412415759794079</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.39196516971046</v>
+        <v>81.39196516971097</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.8828327344438</v>
+        <v>14.88283273444387</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.59331345158211</v>
+        <v>24.59331345158213</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.27766284982988</v>
+        <v>28.27766284982987</v>
       </c>
       <c r="C15">
-        <v>19.94010123343546</v>
+        <v>19.94010123343569</v>
       </c>
       <c r="D15">
-        <v>8.367744146528011</v>
+        <v>8.367744146528013</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.89337249124276</v>
+        <v>80.89337249124272</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.43021345676277</v>
+        <v>24.43021345676281</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.17706155702032</v>
+        <v>27.17706155702033</v>
       </c>
       <c r="C16">
-        <v>19.15882098016611</v>
+        <v>19.158820980166</v>
       </c>
       <c r="D16">
-        <v>8.112438829630245</v>
+        <v>8.112438829630234</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.03069041154707</v>
+        <v>78.03069041154703</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.32904918311887</v>
+        <v>14.32904918311888</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.49188203833484</v>
+        <v>23.49188203833483</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49652495399348</v>
+        <v>26.49652495399334</v>
       </c>
       <c r="C17">
-        <v>18.67709498354015</v>
+        <v>18.67709498353992</v>
       </c>
       <c r="D17">
-        <v>7.956223640956435</v>
+        <v>7.956223640956416</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.26770324178472</v>
+        <v>76.26770324178426</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.04090508849952</v>
+        <v>14.04090508849949</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.9121933885872</v>
+        <v>22.91219338858708</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10281538757032</v>
+        <v>26.10281538757021</v>
       </c>
       <c r="C18">
-        <v>18.39886001190916</v>
+        <v>18.39886001190906</v>
       </c>
       <c r="D18">
-        <v>7.866447332212588</v>
+        <v>7.866447332212589</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.2504698250452</v>
+        <v>75.25046982504477</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.87540813044076</v>
+        <v>13.87540813044071</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.57699859066423</v>
+        <v>22.57699859066419</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.96909230028225</v>
+        <v>25.96909230028208</v>
       </c>
       <c r="C19">
-        <v>18.30443227148115</v>
+        <v>18.30443227148092</v>
       </c>
       <c r="D19">
-        <v>7.836057009191009</v>
+        <v>7.836057009190925</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90544070495889</v>
+        <v>74.90544070495859</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.8194039578447</v>
+        <v>13.8194039578446</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.46317793681499</v>
+        <v>22.46317793681487</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.5691987937971</v>
+        <v>26.56919879379721</v>
       </c>
       <c r="C20">
-        <v>18.72848987572086</v>
+        <v>18.72848987572073</v>
       </c>
       <c r="D20">
-        <v>7.972843736130489</v>
+        <v>7.972843736130468</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.45569377321809</v>
+        <v>76.45569377321837</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.07155158630536</v>
+        <v>14.07155158630538</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56044127436991</v>
+        <v>28.56044127436997</v>
       </c>
       <c r="C21">
-        <v>20.14129366383807</v>
+        <v>20.14129366383802</v>
       </c>
       <c r="D21">
-        <v>8.43385242415323</v>
+        <v>8.433852424153264</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.63098767471634</v>
+        <v>81.63098767471621</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.92242455717682</v>
+        <v>14.9224245571768</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.6714711377916</v>
+        <v>24.67147113779163</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.8487711116338</v>
+        <v>29.84877111163372</v>
       </c>
       <c r="C22">
         <v>21.06040653554905</v>
       </c>
       <c r="D22">
-        <v>8.737570888261622</v>
+        <v>8.737570888261608</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.01658501441068</v>
+        <v>85.01658501441027</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.48353603009046</v>
+        <v>15.4835360300904</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.77156516894795</v>
+        <v>25.77156516894788</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.16195847334994</v>
+        <v>29.16195847335009</v>
       </c>
       <c r="C23">
-        <v>20.5699088678609</v>
+        <v>20.56990886786075</v>
       </c>
       <c r="D23">
-        <v>8.575148773780686</v>
+        <v>8.575148773780782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.20264966460135</v>
+        <v>83.20264966460221</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.18343156908149</v>
+        <v>15.18343156908155</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.18490841538873</v>
+        <v>25.18490841538871</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.53635068732375</v>
+        <v>26.53635068732383</v>
       </c>
       <c r="C24">
-        <v>18.70525830715398</v>
+        <v>18.70525830715386</v>
       </c>
       <c r="D24">
-        <v>7.965329703121784</v>
+        <v>7.965329703121843</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.37071484568753</v>
+        <v>76.3707148456876</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.05769583206214</v>
+        <v>14.05769583206215</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.94610696811831</v>
+        <v>22.94610696811834</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.61445748567296</v>
+        <v>23.614457485673</v>
       </c>
       <c r="C25">
-        <v>16.64758377506219</v>
+        <v>16.64758377506199</v>
       </c>
       <c r="D25">
-        <v>7.309915869850839</v>
+        <v>7.309915869850895</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.87426190702969</v>
+        <v>68.87426190702956</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.85178936510994</v>
+        <v>12.85178936510993</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.46119101320617</v>
+        <v>20.46119101320623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.35660115925574</v>
+        <v>21.35660115925584</v>
       </c>
       <c r="C2">
-        <v>15.06833982019472</v>
+        <v>15.06833982019479</v>
       </c>
       <c r="D2">
-        <v>6.823018132108139</v>
+        <v>6.823018132108021</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.18617942807268</v>
+        <v>63.18617942807306</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.9614180826809</v>
+        <v>11.96141808268092</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.54505481258815</v>
+        <v>18.54505481258818</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74875437495621</v>
+        <v>19.7487543749562</v>
       </c>
       <c r="C3">
-        <v>13.94873141042785</v>
+        <v>13.94873141042788</v>
       </c>
       <c r="D3">
-        <v>6.48832673382668</v>
+        <v>6.488326733826558</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.20839178905853</v>
+        <v>59.20839178905845</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.18241440044727</v>
+        <v>17.18241440044726</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72017030560136</v>
+        <v>18.7201703056014</v>
       </c>
       <c r="C4">
-        <v>13.2344373297847</v>
+        <v>13.23443732978478</v>
       </c>
       <c r="D4">
-        <v>6.280089547831902</v>
+        <v>6.280089547831869</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.70238893766125</v>
+        <v>56.70238893766138</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.97869814504355</v>
+        <v>10.97869814504349</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.31141506827735</v>
+        <v>16.31141506827745</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29021887252391</v>
+        <v>18.29021887252396</v>
       </c>
       <c r="C5">
-        <v>12.93627840939504</v>
+        <v>12.93627840939488</v>
       </c>
       <c r="D5">
-        <v>6.194507030285808</v>
+        <v>6.194507030285865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.66503191869554</v>
+        <v>55.66503191869548</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.82521380567848</v>
+        <v>10.82521380567844</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.94748653642244</v>
+        <v>15.94748653642253</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21816307390179</v>
+        <v>18.21816307390169</v>
       </c>
       <c r="C6">
-        <v>12.88633296828389</v>
+        <v>12.8863329682838</v>
       </c>
       <c r="D6">
-        <v>6.180251696395231</v>
+        <v>6.180251696395278</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49180579178604</v>
+        <v>55.49180579178592</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.79969502369569</v>
+        <v>10.79969502369571</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.8865038807807</v>
+        <v>15.88650388078061</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71441602870107</v>
+        <v>18.71441602870114</v>
       </c>
       <c r="C7">
-        <v>13.23044531976235</v>
+        <v>13.23044531976252</v>
       </c>
       <c r="D7">
-        <v>6.278938317834171</v>
+        <v>6.278938317834</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.68846412153411</v>
+        <v>56.68846412153401</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.97663043286136</v>
+        <v>10.97663043286138</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.30654384043772</v>
+        <v>16.30654384043778</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>20.81054712935646</v>
       </c>
       <c r="C8">
-        <v>14.68766283606663</v>
+        <v>14.6876628360665</v>
       </c>
       <c r="D8">
-        <v>6.70815583167056</v>
+        <v>6.708155831670501</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.82767311859572</v>
+        <v>61.82767311859555</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.7524315439782</v>
+        <v>11.75243154397822</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.08211476432792</v>
+        <v>18.08211476432785</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.61353677825997</v>
+        <v>24.61353677825986</v>
       </c>
       <c r="C9">
-        <v>17.34927332879099</v>
+        <v>17.34927332879095</v>
       </c>
       <c r="D9">
-        <v>7.531021332204273</v>
+        <v>7.531021332204216</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.42248159238893</v>
+        <v>71.42248159238896</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.2579003163072</v>
+        <v>13.25790031630722</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.25442825308976</v>
+        <v>27.25442825308951</v>
       </c>
       <c r="C10">
         <v>19.21365066812824</v>
       </c>
       <c r="D10">
-        <v>8.130279348392278</v>
+        <v>8.130279348392175</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.23147315391365</v>
+        <v>78.23147315391304</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.36196877897249</v>
+        <v>14.36196877897242</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.55780812242838</v>
+        <v>23.55780812242831</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43229939476505</v>
+        <v>28.43229939476486</v>
       </c>
       <c r="C11">
-        <v>20.05009900806646</v>
+        <v>20.05009900806645</v>
       </c>
       <c r="D11">
-        <v>8.403869876217334</v>
+        <v>8.403869876217286</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.29663411449035</v>
+        <v>81.29663411448976</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.86704971330347</v>
+        <v>14.86704971330343</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.56213562311759</v>
+        <v>24.56213562311747</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.87598016254032</v>
+        <v>28.87598016254049</v>
       </c>
       <c r="C12">
-        <v>20.36602241403704</v>
+        <v>20.36602241403732</v>
       </c>
       <c r="D12">
-        <v>8.507859500497052</v>
+        <v>8.507859500497245</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.45500209005343</v>
+        <v>82.45500209005408</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.05912388344239</v>
+        <v>15.05912388344251</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.94076434354798</v>
+        <v>24.94076434354812</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.7805114502756</v>
+        <v>28.78051145027571</v>
       </c>
       <c r="C13">
-        <v>20.29800342420557</v>
+        <v>20.29800342420559</v>
       </c>
       <c r="D13">
-        <v>8.48544161264136</v>
+        <v>8.485441612641434</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.20558727378146</v>
+        <v>82.20558727378203</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.01771335013365</v>
+        <v>15.01771335013368</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.85927803407574</v>
+        <v>24.85927803407573</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.46884176166722</v>
+        <v>28.468841761667</v>
       </c>
       <c r="C14">
-        <v>20.07610107336069</v>
+        <v>20.07610107336049</v>
       </c>
       <c r="D14">
-        <v>8.412415759794079</v>
+        <v>8.412415759794055</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.39196516971097</v>
+        <v>81.39196516971046</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.88283273444387</v>
+        <v>14.8828327344438</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.59331345158213</v>
+        <v>24.59331345158211</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.27766284982987</v>
+        <v>28.27766284982988</v>
       </c>
       <c r="C15">
-        <v>19.94010123343569</v>
+        <v>19.94010123343546</v>
       </c>
       <c r="D15">
-        <v>8.367744146528013</v>
+        <v>8.367744146528011</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.89337249124272</v>
+        <v>80.89337249124276</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.43021345676281</v>
+        <v>24.43021345676277</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.17706155702033</v>
+        <v>27.17706155702032</v>
       </c>
       <c r="C16">
-        <v>19.158820980166</v>
+        <v>19.15882098016611</v>
       </c>
       <c r="D16">
-        <v>8.112438829630234</v>
+        <v>8.112438829630245</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.03069041154703</v>
+        <v>78.03069041154707</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.32904918311888</v>
+        <v>14.32904918311887</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.49188203833483</v>
+        <v>23.49188203833484</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49652495399334</v>
+        <v>26.49652495399348</v>
       </c>
       <c r="C17">
-        <v>18.67709498353992</v>
+        <v>18.67709498354015</v>
       </c>
       <c r="D17">
-        <v>7.956223640956416</v>
+        <v>7.956223640956435</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.26770324178426</v>
+        <v>76.26770324178472</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.04090508849949</v>
+        <v>14.04090508849952</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.91219338858708</v>
+        <v>22.9121933885872</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10281538757021</v>
+        <v>26.10281538757032</v>
       </c>
       <c r="C18">
-        <v>18.39886001190906</v>
+        <v>18.39886001190916</v>
       </c>
       <c r="D18">
-        <v>7.866447332212589</v>
+        <v>7.866447332212588</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.25046982504477</v>
+        <v>75.2504698250452</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.87540813044071</v>
+        <v>13.87540813044076</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.57699859066419</v>
+        <v>22.57699859066423</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.96909230028208</v>
+        <v>25.96909230028225</v>
       </c>
       <c r="C19">
-        <v>18.30443227148092</v>
+        <v>18.30443227148115</v>
       </c>
       <c r="D19">
-        <v>7.836057009190925</v>
+        <v>7.836057009191009</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90544070495859</v>
+        <v>74.90544070495889</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.8194039578446</v>
+        <v>13.8194039578447</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.46317793681487</v>
+        <v>22.46317793681499</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.56919879379721</v>
+        <v>26.5691987937971</v>
       </c>
       <c r="C20">
-        <v>18.72848987572073</v>
+        <v>18.72848987572086</v>
       </c>
       <c r="D20">
-        <v>7.972843736130468</v>
+        <v>7.972843736130489</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.45569377321837</v>
+        <v>76.45569377321809</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.07155158630538</v>
+        <v>14.07155158630536</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56044127436997</v>
+        <v>28.56044127436991</v>
       </c>
       <c r="C21">
-        <v>20.14129366383802</v>
+        <v>20.14129366383807</v>
       </c>
       <c r="D21">
-        <v>8.433852424153264</v>
+        <v>8.43385242415323</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.63098767471621</v>
+        <v>81.63098767471634</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.9224245571768</v>
+        <v>14.92242455717682</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.67147113779163</v>
+        <v>24.6714711377916</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.84877111163372</v>
+        <v>29.8487711116338</v>
       </c>
       <c r="C22">
         <v>21.06040653554905</v>
       </c>
       <c r="D22">
-        <v>8.737570888261608</v>
+        <v>8.737570888261622</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.01658501441027</v>
+        <v>85.01658501441068</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.4835360300904</v>
+        <v>15.48353603009046</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.77156516894788</v>
+        <v>25.77156516894795</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.16195847335009</v>
+        <v>29.16195847334994</v>
       </c>
       <c r="C23">
-        <v>20.56990886786075</v>
+        <v>20.5699088678609</v>
       </c>
       <c r="D23">
-        <v>8.575148773780782</v>
+        <v>8.575148773780686</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.20264966460221</v>
+        <v>83.20264966460135</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.18343156908155</v>
+        <v>15.18343156908149</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.18490841538871</v>
+        <v>25.18490841538873</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.53635068732383</v>
+        <v>26.53635068732375</v>
       </c>
       <c r="C24">
-        <v>18.70525830715386</v>
+        <v>18.70525830715398</v>
       </c>
       <c r="D24">
-        <v>7.965329703121843</v>
+        <v>7.965329703121784</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.3707148456876</v>
+        <v>76.37071484568753</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.05769583206215</v>
+        <v>14.05769583206214</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.94610696811834</v>
+        <v>22.94610696811831</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.614457485673</v>
+        <v>23.61445748567296</v>
       </c>
       <c r="C25">
-        <v>16.64758377506199</v>
+        <v>16.64758377506219</v>
       </c>
       <c r="D25">
-        <v>7.309915869850895</v>
+        <v>7.309915869850839</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.87426190702956</v>
+        <v>68.87426190702969</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.85178936510993</v>
+        <v>12.85178936510994</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.46119101320623</v>
+        <v>20.46119101320617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.35660115925584</v>
+        <v>21.20632918131516</v>
       </c>
       <c r="C2">
-        <v>15.06833982019479</v>
+        <v>14.88212912971327</v>
       </c>
       <c r="D2">
-        <v>6.823018132108021</v>
+        <v>6.926283186810362</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.18617942807306</v>
+        <v>63.25526288482983</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.050689855616978</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.96141808268092</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.9111453045512</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.54505481258818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.47015933296854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7487543749562</v>
+        <v>19.60741489039124</v>
       </c>
       <c r="C3">
-        <v>13.94873141042788</v>
+        <v>13.76742280899795</v>
       </c>
       <c r="D3">
-        <v>6.488326733826558</v>
+        <v>6.599532815784759</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.20839178905845</v>
+        <v>59.31782570891856</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.066100056855722</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.35395932553288</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.30173396754198</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.18241440044726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.11129040029464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7201703056014</v>
+        <v>18.58464699017926</v>
       </c>
       <c r="C4">
-        <v>13.23443732978478</v>
+        <v>13.05609397867941</v>
       </c>
       <c r="D4">
-        <v>6.280089547831869</v>
+        <v>6.396527399255765</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.70238893766138</v>
+        <v>56.83879922994205</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.075662826787219</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.97869814504349</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.92499905827985</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.31141506827745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.24255977271772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29021887252396</v>
+        <v>18.15716163168322</v>
       </c>
       <c r="C5">
-        <v>12.93627840939488</v>
+        <v>12.75913455661147</v>
       </c>
       <c r="D5">
-        <v>6.194507030285865</v>
+        <v>6.313167127733557</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.66503191869548</v>
+        <v>55.81302646123694</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.07959210965328</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.82521380567844</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.77084738293678</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.94748653642253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.87954750063815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21816307390169</v>
+        <v>18.08552150054723</v>
       </c>
       <c r="C6">
-        <v>12.8863329682838</v>
+        <v>12.70938779977391</v>
       </c>
       <c r="D6">
-        <v>6.180251696395278</v>
+        <v>6.299286248805239</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.49180579178592</v>
+        <v>55.64176066100288</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.080246709379044</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.79969502369571</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.74521382757242</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.88650388078061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.81871657603113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71441602870114</v>
+        <v>18.57892556600445</v>
       </c>
       <c r="C7">
-        <v>13.23044531976252</v>
+        <v>13.05211817923841</v>
       </c>
       <c r="D7">
-        <v>6.278938317834</v>
+        <v>6.395405773573999</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.68846412153401</v>
+        <v>56.8250282009879</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.075715678692673</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.97663043286138</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.92292261340337</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.30654384043778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.23770093131397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.81054712935646</v>
+        <v>20.66329363491499</v>
       </c>
       <c r="C8">
-        <v>14.6876628360665</v>
+        <v>14.50315349623538</v>
       </c>
       <c r="D8">
-        <v>6.708155831670501</v>
+        <v>6.814085854793525</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.82767311859555</v>
+        <v>61.91023582760843</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.055986860232389</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.75243154397822</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.70154395270763</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.08211476432785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.00853191477578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.61353677825986</v>
+        <v>24.44529665291226</v>
       </c>
       <c r="C9">
-        <v>17.34927332879095</v>
+        <v>17.15210154061103</v>
       </c>
       <c r="D9">
-        <v>7.531021332204216</v>
+        <v>7.619022238353587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.42248159238896</v>
+        <v>71.41482197753997</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.017729844949254</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.25790031630722</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.21025139478785</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.31014640425479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.22667202080356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.25442825308951</v>
+        <v>27.07122144685152</v>
       </c>
       <c r="C10">
-        <v>19.21365066812824</v>
+        <v>19.00644551685545</v>
       </c>
       <c r="D10">
-        <v>8.130279348392175</v>
+        <v>8.206568511153673</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.23147315391304</v>
+        <v>78.16438169083526</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.989267499444037</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.36196877897242</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.31510694685762</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>23.55780812242831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.4662644024457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43229939476486</v>
+        <v>28.24216211981282</v>
       </c>
       <c r="C11">
-        <v>20.05009900806645</v>
+        <v>19.8380263244394</v>
       </c>
       <c r="D11">
-        <v>8.403869876217286</v>
+        <v>8.475076325504507</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.29663411448976</v>
+        <v>81.20328875930548</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.976065370302085</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.86704971330343</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.82013435443089</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>24.56213562311747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.46659782549111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.87598016254049</v>
+        <v>28.68317694574862</v>
       </c>
       <c r="C12">
-        <v>20.36602241403732</v>
+        <v>20.15204504014063</v>
       </c>
       <c r="D12">
-        <v>8.507859500497245</v>
+        <v>8.57716811604578</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.45500209005408</v>
+        <v>82.35175422004552</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.971010621331065</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.05912388344251</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>15.01212075467162</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.94076434354812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.84364951789477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.78051145027571</v>
+        <v>28.58828469309511</v>
       </c>
       <c r="C13">
-        <v>20.29800342420559</v>
+        <v>20.08443934550301</v>
       </c>
       <c r="D13">
-        <v>8.485441612641434</v>
+        <v>8.555157924515862</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.20558727378203</v>
+        <v>82.10447169274785</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.972102061408467</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.01771335013368</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14.97073229374005</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.85927803407573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.76250607610278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.468841761667</v>
+        <v>28.27848615144646</v>
       </c>
       <c r="C14">
-        <v>20.07610107336049</v>
+        <v>19.86387304616749</v>
       </c>
       <c r="D14">
-        <v>8.412415759794055</v>
+        <v>8.483465590960012</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.39196516971046</v>
+        <v>81.2978048219306</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.975650746190319</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.8828327344438</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>14.83591156661929</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>24.59331345158211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.49764733040192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.27766284982988</v>
+        <v>28.08844713977447</v>
       </c>
       <c r="C15">
-        <v>19.94010123343546</v>
+        <v>19.72868293675328</v>
       </c>
       <c r="D15">
-        <v>8.367744146528011</v>
+        <v>8.439614008425457</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.89337249124276</v>
+        <v>80.80347507910847</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.977816574124302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.80033428911763</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14.75344071331538</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.43021345676277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.33521564450948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.17706155702032</v>
+        <v>26.99430330951381</v>
       </c>
       <c r="C16">
-        <v>19.15882098016611</v>
+        <v>18.95192643916403</v>
       </c>
       <c r="D16">
-        <v>8.112438829630245</v>
+        <v>8.189064428254474</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.03069041154707</v>
+        <v>77.96532454318655</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.990123655581875</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.32904918311887</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>14.28218192457433</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23.49188203833484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.40059142319564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49652495399348</v>
+        <v>26.31768170559307</v>
       </c>
       <c r="C17">
-        <v>18.67709498354015</v>
+        <v>18.47288702794132</v>
       </c>
       <c r="D17">
-        <v>7.956223640956435</v>
+        <v>8.035824241394611</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.26770324178472</v>
+        <v>76.21753967473833</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.997596353778381</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.04090508849952</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.99394354867274</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.9121933885872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.8230831211987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.10281538757032</v>
+        <v>25.92621418355476</v>
       </c>
       <c r="C18">
-        <v>18.39886001190916</v>
+        <v>18.19617012030091</v>
       </c>
       <c r="D18">
-        <v>7.866447332212588</v>
+        <v>7.94778275477765</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.2504698250452</v>
+        <v>75.2091289505951</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.001871836985679</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.87540813044076</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.82835426454041</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.57699859066423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.4891133378214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.96909230028225</v>
+        <v>25.79324917032357</v>
       </c>
       <c r="C19">
-        <v>18.30443227148115</v>
+        <v>18.10225215098383</v>
       </c>
       <c r="D19">
-        <v>7.836057009191009</v>
+        <v>7.917984097826721</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.90544070495889</v>
+        <v>74.86710254443089</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.003316065479854</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.8194039578447</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.77231249462044</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.46317793681499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.3757029197104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.5691987937971</v>
+        <v>26.38993995095491</v>
       </c>
       <c r="C20">
-        <v>18.72848987572086</v>
+        <v>18.52399885293743</v>
       </c>
       <c r="D20">
-        <v>7.972843736130489</v>
+        <v>8.052125244988076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.45569377321809</v>
+        <v>76.4039042263142</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.996803335982283</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.07155158630536</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.02460407654394</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.97407971785458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.88474046905965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56044127436991</v>
+        <v>28.36953741419662</v>
       </c>
       <c r="C21">
-        <v>20.14129366383807</v>
+        <v>19.92867504750733</v>
       </c>
       <c r="D21">
-        <v>8.43385242415323</v>
+        <v>8.50450991752705</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.63098767471634</v>
+        <v>81.53478400899276</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.974610085944352</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.92242455717682</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>14.87548771286509</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>24.6714711377916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.57548213252316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.8487711116338</v>
+        <v>29.64999796108082</v>
       </c>
       <c r="C22">
-        <v>21.06040653554905</v>
+        <v>20.84210449221952</v>
       </c>
       <c r="D22">
-        <v>8.737570888261622</v>
+        <v>8.802742964931278</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.01658501441068</v>
+        <v>84.87621496120326</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.959770563258345</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.48353603009046</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.43620624423552</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.77156516894795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.6708404864227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.16195847334994</v>
+        <v>28.96741879313751</v>
       </c>
       <c r="C23">
-        <v>20.5699088678609</v>
+        <v>20.35468184318752</v>
       </c>
       <c r="D23">
-        <v>8.575148773780686</v>
+        <v>8.6432381528232</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.20264966460135</v>
+        <v>83.09300803043752</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.967728747619568</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.18343156908149</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.13635175508259</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.18490841538873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.0867546308929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.53635068732375</v>
+        <v>26.35727976024191</v>
       </c>
       <c r="C24">
-        <v>18.70525830715398</v>
+        <v>18.5008953402975</v>
       </c>
       <c r="D24">
-        <v>7.965329703121784</v>
+        <v>8.044755396517445</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.37071484568753</v>
+        <v>76.31966014144726</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.997161922351695</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.05769583206214</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.01074209747086</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.94610696811831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.85687132930285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.61445748567296</v>
+        <v>23.45175112540743</v>
       </c>
       <c r="C25">
-        <v>16.64758377506219</v>
+        <v>16.45392816696033</v>
       </c>
       <c r="D25">
-        <v>7.309915869850839</v>
+        <v>7.40249115425833</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.87426190702969</v>
+        <v>68.88959411579908</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.028090444212483</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.85178936510994</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.80352681375684</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.46119101320617</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.38049384839225</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20632918131516</v>
+        <v>24.47011707107494</v>
       </c>
       <c r="C2">
-        <v>14.88212912971327</v>
+        <v>13.22601673314701</v>
       </c>
       <c r="D2">
-        <v>6.926283186810362</v>
+        <v>4.461020442018217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.25526288482983</v>
+        <v>36.55764687055707</v>
       </c>
       <c r="G2">
-        <v>2.050689855616978</v>
+        <v>2.07249121996138</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.9111453045512</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.100591901626528</v>
       </c>
       <c r="M2">
-        <v>18.47015933296854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.82470936916869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60741489039124</v>
+        <v>22.72402272859078</v>
       </c>
       <c r="C3">
-        <v>13.76742280899795</v>
+        <v>12.52329418027933</v>
       </c>
       <c r="D3">
-        <v>6.599532815784759</v>
+        <v>4.537478737994273</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.31782570891856</v>
+        <v>34.81496686542092</v>
       </c>
       <c r="G3">
-        <v>2.066100056855722</v>
+        <v>2.083943409055391</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.30173396754198</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.809236744455074</v>
       </c>
       <c r="M3">
-        <v>17.11129040029464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.62984160589538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58464699017926</v>
+        <v>21.59828299889951</v>
       </c>
       <c r="C4">
-        <v>13.05609397867941</v>
+        <v>12.07401849670949</v>
       </c>
       <c r="D4">
-        <v>6.396527399255765</v>
+        <v>4.586427420945865</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.83879922994205</v>
+        <v>33.74516450108577</v>
       </c>
       <c r="G4">
-        <v>2.075662826787219</v>
+        <v>2.09111886582568</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.92499905827985</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.632001308673487</v>
       </c>
       <c r="M4">
-        <v>16.24255977271772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.90487959849776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15716163168322</v>
+        <v>21.12586251139746</v>
       </c>
       <c r="C5">
-        <v>12.75913455661147</v>
+        <v>11.88647399290564</v>
       </c>
       <c r="D5">
-        <v>6.313167127733557</v>
+        <v>4.606852314853061</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.81302646123694</v>
+        <v>33.30961601976975</v>
       </c>
       <c r="G5">
-        <v>2.07959210965328</v>
+        <v>2.094082190887182</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.77084738293678</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.560252932082458</v>
       </c>
       <c r="M5">
-        <v>15.87954750063815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.61182277281207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.08552150054723</v>
+        <v>21.04658669820937</v>
       </c>
       <c r="C6">
-        <v>12.70938779977391</v>
+        <v>11.8550638717582</v>
       </c>
       <c r="D6">
-        <v>6.299286248805239</v>
+        <v>4.610272052611675</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.64176066100288</v>
+        <v>33.2373299266003</v>
       </c>
       <c r="G6">
-        <v>2.080246709379044</v>
+        <v>2.094576706690575</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.74521382757242</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.548369860095935</v>
       </c>
       <c r="M6">
-        <v>15.81871657603113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.56331031929087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57892556600445</v>
+        <v>21.59196735888088</v>
       </c>
       <c r="C7">
-        <v>13.05211817923841</v>
+        <v>12.07150723004367</v>
       </c>
       <c r="D7">
-        <v>6.395405773573999</v>
+        <v>4.586700973797982</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.8250282009879</v>
+        <v>33.73928837468984</v>
       </c>
       <c r="G7">
-        <v>2.075715678692673</v>
+        <v>2.091158667335225</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.92292261340337</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.631031670327301</v>
       </c>
       <c r="M7">
-        <v>16.23770093131397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.90091745600274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66329363491499</v>
+        <v>23.87907459700926</v>
       </c>
       <c r="C8">
-        <v>14.50315349623538</v>
+        <v>12.98741392923732</v>
       </c>
       <c r="D8">
-        <v>6.814085854793525</v>
+        <v>4.486950493681296</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.91023582760843</v>
+        <v>35.95690975836648</v>
       </c>
       <c r="G8">
-        <v>2.055986860232389</v>
+        <v>2.076412058097898</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.70154395270763</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.999821304059732</v>
       </c>
       <c r="M8">
-        <v>18.00853191477578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.41101212287404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44529665291226</v>
+        <v>27.94833065660059</v>
       </c>
       <c r="C9">
-        <v>17.15210154061103</v>
+        <v>14.64294056641041</v>
       </c>
       <c r="D9">
-        <v>7.619022238353587</v>
+        <v>4.308689563844822</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.41482197753997</v>
+        <v>40.29706922455394</v>
       </c>
       <c r="G9">
-        <v>2.017729844949254</v>
+        <v>2.048478337282783</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.21025139478785</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.73414402738635</v>
       </c>
       <c r="M9">
-        <v>21.22667202080356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.43592059132351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.07122144685152</v>
+        <v>30.70027072024934</v>
       </c>
       <c r="C10">
-        <v>19.00644551685545</v>
+        <v>15.77642014025692</v>
       </c>
       <c r="D10">
-        <v>8.206568511153673</v>
+        <v>4.190904097524505</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.16438169083526</v>
+        <v>43.47522449941139</v>
       </c>
       <c r="G10">
-        <v>1.989267499444037</v>
+        <v>2.028309564676118</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.31510694685762</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.278793456078843</v>
       </c>
       <c r="M10">
-        <v>23.4662644024457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.6950630020832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.24216211981282</v>
+        <v>31.90469563796482</v>
       </c>
       <c r="C11">
-        <v>19.8380263244394</v>
+        <v>16.27523913362352</v>
       </c>
       <c r="D11">
-        <v>8.475076325504507</v>
+        <v>4.140977978698277</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.20328875930548</v>
+        <v>44.92021079585299</v>
       </c>
       <c r="G11">
-        <v>1.976065370302085</v>
+        <v>2.019147080167553</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.82013435443089</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.52769151053832</v>
       </c>
       <c r="M11">
-        <v>24.46659782549111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.73204315293238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.68317694574862</v>
+        <v>32.35435485677482</v>
       </c>
       <c r="C12">
-        <v>20.15204504014063</v>
+        <v>16.46184458921152</v>
       </c>
       <c r="D12">
-        <v>8.57716811604578</v>
+        <v>4.122685256898468</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.35175422004552</v>
+        <v>45.46758036226986</v>
       </c>
       <c r="G12">
-        <v>1.971010621331065</v>
+        <v>2.015673028075339</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.01212075467162</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.622132818204159</v>
       </c>
       <c r="M12">
-        <v>24.84364951789477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.12628751922028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.58828469309511</v>
+        <v>32.25779185330688</v>
       </c>
       <c r="C13">
-        <v>20.08443934550301</v>
+        <v>16.4217550403026</v>
       </c>
       <c r="D13">
-        <v>8.555157924515862</v>
+        <v>4.12659603613877</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.10447169274785</v>
+        <v>45.34967995874285</v>
       </c>
       <c r="G13">
-        <v>1.972102061408467</v>
+        <v>2.016421532319025</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.97073229374005</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.601784122799915</v>
       </c>
       <c r="M13">
-        <v>24.76250607610278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.04130561228103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.27848615144646</v>
+        <v>31.94181580393292</v>
       </c>
       <c r="C14">
-        <v>19.86387304616749</v>
+        <v>16.29063624123592</v>
       </c>
       <c r="D14">
-        <v>8.483465590960012</v>
+        <v>4.139460161872866</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.2978048219306</v>
+        <v>44.96523727599768</v>
       </c>
       <c r="G14">
-        <v>1.975650746190319</v>
+        <v>2.018861395093841</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.83591156661929</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.535457233871572</v>
       </c>
       <c r="M14">
-        <v>24.49764733040192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.76444485361535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.08844713977447</v>
+        <v>31.74744650100559</v>
       </c>
       <c r="C15">
-        <v>19.72868293675328</v>
+        <v>16.21002883329809</v>
       </c>
       <c r="D15">
-        <v>8.439614008425457</v>
+        <v>4.147422611449475</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.80347507910847</v>
+        <v>44.72979047639258</v>
       </c>
       <c r="G15">
-        <v>1.977816574124302</v>
+        <v>2.02035510678868</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.75344071331538</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.494855881227398</v>
       </c>
       <c r="M15">
-        <v>24.33521564450948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.59507180003612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.99430330951381</v>
+        <v>30.62063630892899</v>
       </c>
       <c r="C16">
-        <v>18.95192643916403</v>
+        <v>15.74349338113157</v>
       </c>
       <c r="D16">
-        <v>8.189064428254474</v>
+        <v>4.194247483405985</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.96532454318655</v>
+        <v>43.38079752224196</v>
       </c>
       <c r="G16">
-        <v>1.990123655581875</v>
+        <v>2.028908093869867</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.28218192457433</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.262551900279435</v>
       </c>
       <c r="M16">
-        <v>23.40059142319564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.6274976537695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.31768170559307</v>
+        <v>29.91748533892632</v>
       </c>
       <c r="C17">
-        <v>18.47288702794132</v>
+        <v>15.45306738856016</v>
       </c>
       <c r="D17">
-        <v>8.035824241394611</v>
+        <v>4.223965529085971</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.21753967473833</v>
+        <v>42.5531991462208</v>
       </c>
       <c r="G17">
-        <v>1.997596353778381</v>
+        <v>2.034154107029208</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.99394354867274</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.120342741649443</v>
       </c>
       <c r="M17">
-        <v>22.8230831211987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.03642756888235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.92621418355476</v>
+        <v>29.50855918343249</v>
       </c>
       <c r="C18">
-        <v>18.19617012030091</v>
+        <v>15.28443050784472</v>
       </c>
       <c r="D18">
-        <v>7.94778275477765</v>
+        <v>4.241396298979978</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.2091289505951</v>
+        <v>42.07708709439816</v>
       </c>
       <c r="G18">
-        <v>2.001871836985679</v>
+        <v>2.037173060376811</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.82835426454041</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.038651678969417</v>
       </c>
       <c r="M18">
-        <v>22.4891133378214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.69731363118002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.79324917032357</v>
+        <v>29.36932115216106</v>
       </c>
       <c r="C19">
-        <v>18.10225215098383</v>
+        <v>15.22705614544011</v>
       </c>
       <c r="D19">
-        <v>7.917984097826721</v>
+        <v>4.24735370696385</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.86710254443089</v>
+        <v>41.91586011731878</v>
       </c>
       <c r="G19">
-        <v>2.003316065479854</v>
+        <v>2.038195673247938</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.77231249462044</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.011009912165134</v>
       </c>
       <c r="M19">
-        <v>22.3757029197104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.58263700898665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.38993995095491</v>
+        <v>29.9927992242462</v>
       </c>
       <c r="C20">
-        <v>18.52399885293743</v>
+        <v>15.48414760412779</v>
       </c>
       <c r="D20">
-        <v>8.052125244988076</v>
+        <v>4.220766465350785</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.4039042263142</v>
+        <v>42.64130702944148</v>
       </c>
       <c r="G20">
-        <v>1.996803335982283</v>
+        <v>2.033595538018628</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14.02460407654394</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.135470283034213</v>
       </c>
       <c r="M20">
-        <v>22.88474046905965</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.09925831499321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.36953741419662</v>
+        <v>32.03479674796229</v>
       </c>
       <c r="C21">
-        <v>19.92867504750733</v>
+        <v>16.32920986837633</v>
       </c>
       <c r="D21">
-        <v>8.50450991752705</v>
+        <v>4.135664215174415</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.53478400899276</v>
+        <v>45.07814927719777</v>
       </c>
       <c r="G21">
-        <v>1.974610085944352</v>
+        <v>2.018144922067338</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.87548771286509</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.554933596421842</v>
       </c>
       <c r="M21">
-        <v>24.57548213252316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.84572078919668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.64999796108082</v>
+        <v>33.33210247760511</v>
       </c>
       <c r="C22">
-        <v>20.84210449221952</v>
+        <v>16.86826365081025</v>
       </c>
       <c r="D22">
-        <v>8.802742964931278</v>
+        <v>4.083675315805625</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.87621496120326</v>
+        <v>46.67209336622482</v>
       </c>
       <c r="G22">
-        <v>1.959770563258345</v>
+        <v>2.008017736371734</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>15.43620624423552</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.830208179983867</v>
       </c>
       <c r="M22">
-        <v>25.6708404864227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>35.99643198400499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.96741879313751</v>
+        <v>32.6429706729619</v>
       </c>
       <c r="C23">
-        <v>20.35468184318752</v>
+        <v>16.5817207185337</v>
       </c>
       <c r="D23">
-        <v>8.6432381528232</v>
+        <v>4.111056161997133</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.09300803043752</v>
+        <v>45.82111534173634</v>
       </c>
       <c r="G23">
-        <v>1.967728747619568</v>
+        <v>2.013427781662241</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15.13635175508259</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.683170672083726</v>
       </c>
       <c r="M23">
-        <v>25.0867546308929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.38131971903179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.35727976024191</v>
+        <v>29.95876440810485</v>
       </c>
       <c r="C24">
-        <v>18.5008953402975</v>
+        <v>15.47010144074055</v>
       </c>
       <c r="D24">
-        <v>8.044755396517445</v>
+        <v>4.222211692370795</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.31966014144726</v>
+        <v>42.60147445605023</v>
       </c>
       <c r="G24">
-        <v>1.997161922351695</v>
+        <v>2.033848057422862</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14.01074209747086</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.128630914899231</v>
       </c>
       <c r="M24">
-        <v>22.85687132930285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.07085036960661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45175112540743</v>
+        <v>26.89049846867579</v>
       </c>
       <c r="C25">
-        <v>16.45392816696033</v>
+        <v>14.20992502120439</v>
       </c>
       <c r="D25">
-        <v>7.40249115425833</v>
+        <v>4.354823546275925</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.88959411579908</v>
+        <v>39.12484894092555</v>
       </c>
       <c r="G25">
-        <v>2.028090444212483</v>
+        <v>2.055953389809034</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.80352681375684</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.53452639908058</v>
       </c>
       <c r="M25">
-        <v>20.38049384839225</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.61127676421182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.47011707107494</v>
+        <v>12.43663118244616</v>
       </c>
       <c r="C2">
-        <v>13.22601673314701</v>
+        <v>6.612298646294519</v>
       </c>
       <c r="D2">
-        <v>4.461020442018217</v>
+        <v>4.070633465310671</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.55764687055707</v>
+        <v>30.83510629989725</v>
       </c>
       <c r="G2">
-        <v>2.07249121996138</v>
+        <v>39.86231830805914</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.3472838612354</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>22.12389247336389</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.471078029619914</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.49557410912741</v>
       </c>
       <c r="L2">
-        <v>8.100591901626528</v>
+        <v>6.95893165636472</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.971119092455751</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.82470936916869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.72402272859078</v>
+        <v>11.69211984511313</v>
       </c>
       <c r="C3">
-        <v>12.52329418027933</v>
+        <v>6.353159121334786</v>
       </c>
       <c r="D3">
-        <v>4.537478737994273</v>
+        <v>3.967438717812191</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.81496686542092</v>
+        <v>30.60523056802153</v>
       </c>
       <c r="G3">
-        <v>2.083943409055391</v>
+        <v>39.4639353906137</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13.37185247512736</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>22.17218936181223</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.515009921127795</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.838522192521628</v>
       </c>
       <c r="L3">
-        <v>7.809236744455074</v>
+        <v>6.896854886678881</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.706571196863784</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.62984160589538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.59828299889951</v>
+        <v>11.21493180078419</v>
       </c>
       <c r="C4">
-        <v>12.07401849670949</v>
+        <v>6.188525864627285</v>
       </c>
       <c r="D4">
-        <v>4.586427420945865</v>
+        <v>3.903981995617937</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.74516450108577</v>
+        <v>30.48320713554722</v>
       </c>
       <c r="G4">
-        <v>2.09111886582568</v>
+        <v>39.24743621838155</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.39385028862935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>22.21427708826277</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.543036852516058</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.413030786816147</v>
       </c>
       <c r="L4">
-        <v>7.632001308673487</v>
+        <v>6.86113560260966</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.544703525653416</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.90487959849776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12586251139746</v>
+        <v>11.01557356166624</v>
       </c>
       <c r="C5">
-        <v>11.88647399290564</v>
+        <v>6.120085480835038</v>
       </c>
       <c r="D5">
-        <v>4.606852314853061</v>
+        <v>3.87813231002316</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.30961601976975</v>
+        <v>30.43818496081803</v>
       </c>
       <c r="G5">
-        <v>2.094082190887182</v>
+        <v>39.16612745566452</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13.40449898647052</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>22.23445005814654</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.554725389459303</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.234090411569726</v>
       </c>
       <c r="L5">
-        <v>7.560252932082458</v>
+        <v>6.847184000475266</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.478969614485193</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.61182277281207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04658669820937</v>
+        <v>10.98217921473805</v>
       </c>
       <c r="C6">
-        <v>11.8550638717582</v>
+        <v>6.10864063385421</v>
       </c>
       <c r="D6">
-        <v>4.610272052611675</v>
+        <v>3.873841560874283</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.2373299266003</v>
+        <v>30.43098993048232</v>
       </c>
       <c r="G6">
-        <v>2.094576706690575</v>
+        <v>39.15303920492797</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>13.40636737932319</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>22.23797926870062</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.556682485025207</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.204042455876987</v>
       </c>
       <c r="L6">
-        <v>7.548369860095935</v>
+        <v>6.844903879989587</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.468070933481753</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.56331031929087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.59196735888088</v>
+        <v>11.2122628111969</v>
       </c>
       <c r="C7">
-        <v>12.07150723004367</v>
+        <v>6.187608269581444</v>
       </c>
       <c r="D7">
-        <v>4.586700973797982</v>
+        <v>3.90363329442175</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.73928837468984</v>
+        <v>30.48258105069667</v>
       </c>
       <c r="G7">
-        <v>2.091158667335225</v>
+        <v>39.24631186708444</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>13.39398715074733</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>22.21453704882338</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.543193402305174</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.410639999240637</v>
       </c>
       <c r="L7">
-        <v>7.631031670327301</v>
+        <v>6.860944997945928</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.543815973588089</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.90091745600274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.87907459700926</v>
+        <v>12.18416086037907</v>
       </c>
       <c r="C8">
-        <v>12.98741392923732</v>
+        <v>6.524113268680843</v>
       </c>
       <c r="D8">
-        <v>4.486950493681296</v>
+        <v>4.035091037550201</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.95690975836648</v>
+        <v>30.75181564355753</v>
       </c>
       <c r="G8">
-        <v>2.076412058097898</v>
+        <v>39.71903471501755</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13.35428764213537</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>22.13790104792476</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.486008908326108</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.27359675756522</v>
       </c>
       <c r="L8">
-        <v>7.999821304059732</v>
+        <v>6.937031583313884</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.879836087048453</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.41101212287404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.94833065660059</v>
+        <v>13.97306186926718</v>
       </c>
       <c r="C9">
-        <v>14.64294056641041</v>
+        <v>7.138924669579705</v>
       </c>
       <c r="D9">
-        <v>4.308689563844822</v>
+        <v>4.290756937799848</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.29706922455394</v>
+        <v>31.43585573637263</v>
       </c>
       <c r="G9">
-        <v>2.048478337282783</v>
+        <v>40.87518698476943</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.33376406351203</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.09108358788508</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.382097344861767</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.79138335986263</v>
       </c>
       <c r="L9">
-        <v>8.73414402738635</v>
+        <v>7.105141007746711</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.53969546470589</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.43592059132351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.70027072024934</v>
+        <v>15.26153380914466</v>
       </c>
       <c r="C10">
-        <v>15.77642014025692</v>
+        <v>7.561937736630153</v>
       </c>
       <c r="D10">
-        <v>4.190904097524505</v>
+        <v>4.475617595063392</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.47522449941139</v>
+        <v>32.03910205030145</v>
       </c>
       <c r="G10">
-        <v>2.028309564676118</v>
+        <v>41.87180226669982</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.35714261115749</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>22.12656533069411</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.310588931930665</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.80144686659755</v>
       </c>
       <c r="L10">
-        <v>9.278793456078843</v>
+        <v>7.240002645567589</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.02068042930013</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.6950630020832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.90469563796482</v>
+        <v>15.8179059131441</v>
       </c>
       <c r="C11">
-        <v>16.27523913362352</v>
+        <v>7.748020408340482</v>
       </c>
       <c r="D11">
-        <v>4.140977978698277</v>
+        <v>4.558760923635575</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.92021079585299</v>
+        <v>32.33646950721224</v>
       </c>
       <c r="G11">
-        <v>2.019147080167553</v>
+        <v>42.35853425733948</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.37691651690215</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>22.15940322465812</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.279067133493463</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.2385430299412</v>
       </c>
       <c r="L11">
-        <v>9.52769151053832</v>
+        <v>7.303776033578177</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.23786708265867</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.73204315293238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.35435485677482</v>
+        <v>16.02437278727564</v>
       </c>
       <c r="C12">
-        <v>16.46184458921152</v>
+        <v>7.817568860662987</v>
       </c>
       <c r="D12">
-        <v>4.122685256898468</v>
+        <v>4.590086158482558</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.46758036226986</v>
+        <v>32.45245552914701</v>
       </c>
       <c r="G12">
-        <v>2.015673028075339</v>
+        <v>42.54774567987115</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.38578575644689</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>22.17436863392127</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.267272164704382</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.40087960008685</v>
       </c>
       <c r="L12">
-        <v>9.622132818204159</v>
+        <v>7.328269845328069</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.31982050991037</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.12628751922028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.25779185330688</v>
+        <v>15.98009310956485</v>
       </c>
       <c r="C13">
-        <v>16.4217550403026</v>
+        <v>7.802631149223823</v>
       </c>
       <c r="D13">
-        <v>4.12659603613877</v>
+        <v>4.583347126690659</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.34967995874285</v>
+        <v>32.42732432014974</v>
       </c>
       <c r="G13">
-        <v>2.016421532319025</v>
+        <v>42.5067763109887</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.3838130826061</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>22.17103092632913</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.269806175497586</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.36605840908781</v>
       </c>
       <c r="L13">
-        <v>9.601784122799915</v>
+        <v>7.322979423177721</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.30218413509201</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.04130561228103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.94181580393292</v>
+        <v>15.83497626999472</v>
       </c>
       <c r="C14">
-        <v>16.29063624123592</v>
+        <v>7.753760583980242</v>
       </c>
       <c r="D14">
-        <v>4.139460161872866</v>
+        <v>4.561341382904641</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.96523727599768</v>
+        <v>32.34594357081482</v>
       </c>
       <c r="G14">
-        <v>2.018861395093841</v>
+        <v>42.37400211033413</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.37761811954096</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>22.16058297089431</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.278093934506132</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.25196210632765</v>
       </c>
       <c r="L14">
-        <v>9.535457233871572</v>
+        <v>7.305784280013579</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.24461556726505</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.76444485361535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.74744650100559</v>
+        <v>15.74554039360258</v>
       </c>
       <c r="C15">
-        <v>16.21002883329809</v>
+        <v>7.723706499655589</v>
       </c>
       <c r="D15">
-        <v>4.147422611449475</v>
+        <v>4.547840853502018</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.72979047639258</v>
+        <v>32.29653793353977</v>
       </c>
       <c r="G15">
-        <v>2.02035510678868</v>
+        <v>42.29331461012859</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.37400543840287</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>22.15451673155313</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.283188774651402</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.18166157817056</v>
       </c>
       <c r="L15">
-        <v>9.494855881227398</v>
+        <v>7.295296458460084</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.20931373743045</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.59507180003612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.62063630892899</v>
+        <v>15.22457982448284</v>
       </c>
       <c r="C16">
-        <v>15.74349338113157</v>
+        <v>7.549648573374175</v>
       </c>
       <c r="D16">
-        <v>4.194247483405985</v>
+        <v>4.470162856193519</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.38079752224196</v>
+        <v>32.0201370146976</v>
       </c>
       <c r="G16">
-        <v>2.028908093869867</v>
+        <v>41.84067313414735</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.35603992939648</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>22.12476626569179</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.312668958047028</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.77243417444801</v>
       </c>
       <c r="L16">
-        <v>9.262551900279435</v>
+        <v>7.235883307142518</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.00644911904855</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.6274976537695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.91748533892632</v>
+        <v>14.89740712541646</v>
       </c>
       <c r="C17">
-        <v>15.45306738856016</v>
+        <v>7.441239040082571</v>
       </c>
       <c r="D17">
-        <v>4.223965529085971</v>
+        <v>4.42224946517632</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.5531991462208</v>
+        <v>31.85650894979079</v>
       </c>
       <c r="G17">
-        <v>2.034154107029208</v>
+        <v>41.57160991635454</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.3474064804223</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.1108827991454</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.331009921046421</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.51567739951127</v>
       </c>
       <c r="L17">
-        <v>9.120342741649443</v>
+        <v>7.200052991891891</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.88154069197019</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.03642756888235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.50855918343249</v>
+        <v>14.70642109432757</v>
       </c>
       <c r="C18">
-        <v>15.28443050784472</v>
+        <v>7.378287121100239</v>
       </c>
       <c r="D18">
-        <v>4.241396298979978</v>
+        <v>4.394602648825198</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.07708709439816</v>
+        <v>31.76454982812809</v>
       </c>
       <c r="G18">
-        <v>2.037173060376811</v>
+        <v>41.41998703014241</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.3432968078612</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.10446105379278</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.341654213094388</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.36588802664263</v>
       </c>
       <c r="L18">
-        <v>9.038651678969417</v>
+        <v>7.17967277609788</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.80954758877525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.69731363118002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.36932115216106</v>
+        <v>14.64127296055997</v>
       </c>
       <c r="C19">
-        <v>15.22705614544011</v>
+        <v>7.356870258777874</v>
       </c>
       <c r="D19">
-        <v>4.24735370696385</v>
+        <v>4.38522747974663</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.91586011731878</v>
+        <v>31.73378177513702</v>
       </c>
       <c r="G19">
-        <v>2.038195673247938</v>
+        <v>41.36918551270043</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.34205036012564</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.10255143530147</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.345274610617207</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.31480853335437</v>
       </c>
       <c r="L19">
-        <v>9.011009912165134</v>
+        <v>7.172811754588839</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.78514824920691</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.58263700898665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.9927992242462</v>
+        <v>14.93252509104117</v>
       </c>
       <c r="C20">
-        <v>15.48414760412779</v>
+        <v>7.452841319440026</v>
       </c>
       <c r="D20">
-        <v>4.220766465350785</v>
+        <v>4.427359238789653</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.64130702944148</v>
+        <v>31.8737037751395</v>
       </c>
       <c r="G20">
-        <v>2.033595538018628</v>
+        <v>41.59992695040034</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.34823644722849</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.11219795916982</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.329047679588077</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.54322768634488</v>
       </c>
       <c r="L20">
-        <v>9.135470283034213</v>
+        <v>7.203843580314809</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.89485328114789</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.09925831499321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.03479674796229</v>
+        <v>15.87771461569441</v>
       </c>
       <c r="C21">
-        <v>16.32920986837633</v>
+        <v>7.768139947015045</v>
       </c>
       <c r="D21">
-        <v>4.135664215174415</v>
+        <v>4.56780949456272</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.07814927719777</v>
+        <v>32.36975473035768</v>
       </c>
       <c r="G21">
-        <v>2.018144922067338</v>
+        <v>42.41286745481884</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.3793996972212</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>22.16358206523061</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.27565580098506</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.28556100425687</v>
       </c>
       <c r="L21">
-        <v>9.554933596421842</v>
+        <v>7.310825602405016</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.26153315919983</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.84572078919668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.33210247760511</v>
+        <v>16.47088812598557</v>
       </c>
       <c r="C22">
-        <v>16.86826365081025</v>
+        <v>7.968862695083183</v>
       </c>
       <c r="D22">
-        <v>4.083675315805625</v>
+        <v>4.658664540483084</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.67209336622482</v>
+        <v>32.71368622194746</v>
       </c>
       <c r="G22">
-        <v>2.008017736371734</v>
+        <v>42.97275567988616</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.40785056449399</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>22.21197632645889</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.241585175242187</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.75219050797749</v>
       </c>
       <c r="L22">
-        <v>9.830208179983867</v>
+        <v>7.38274904320371</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.49946516573369</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.99643198400499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.6429706729619</v>
+        <v>16.15652705490552</v>
       </c>
       <c r="C23">
-        <v>16.5817207185337</v>
+        <v>7.862222037041986</v>
       </c>
       <c r="D23">
-        <v>4.111056161997133</v>
+        <v>4.610266027299437</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.82111534173634</v>
+        <v>32.52829211375064</v>
       </c>
       <c r="G23">
-        <v>2.013427781662241</v>
+        <v>42.67128563946051</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.39190339788885</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>22.18474843840536</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.25969501837159</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.50482348642963</v>
       </c>
       <c r="L23">
-        <v>9.683170672083726</v>
+        <v>7.344180119426394</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.37265047852746</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.38131971903179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.95876440810485</v>
+        <v>14.91665726529222</v>
       </c>
       <c r="C24">
-        <v>15.47010144074055</v>
+        <v>7.447597877893249</v>
       </c>
       <c r="D24">
-        <v>4.222211692370795</v>
+        <v>4.425049422265259</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.60147445605023</v>
+        <v>31.86592341963612</v>
       </c>
       <c r="G24">
-        <v>2.033848057422862</v>
+        <v>41.58711527955268</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.34785856485769</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.11159852588629</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.329934497764082</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.53077898366594</v>
       </c>
       <c r="L24">
-        <v>9.128630914899231</v>
+        <v>7.20212917247424</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.888835220679</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.07085036960661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.89049846867579</v>
+        <v>13.47308681387658</v>
       </c>
       <c r="C25">
-        <v>14.20992502120439</v>
+        <v>6.977576551469842</v>
       </c>
       <c r="D25">
-        <v>4.354823546275925</v>
+        <v>4.222002273400157</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.12484894092555</v>
+        <v>31.2335006305707</v>
       </c>
       <c r="G25">
-        <v>2.055953389809034</v>
+        <v>40.53706462999591</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13.33282272880712</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.09198107856719</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.409345667875733</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.39934879658404</v>
       </c>
       <c r="L25">
-        <v>8.53452639908058</v>
+        <v>7.057655049198678</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.36156191697639</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.61127676421182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.43663118244616</v>
+        <v>13.71700912156666</v>
       </c>
       <c r="C2">
-        <v>6.612298646294519</v>
+        <v>6.02658000870023</v>
       </c>
       <c r="D2">
-        <v>4.070633465310671</v>
+        <v>7.079662815943526</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.83510629989725</v>
+        <v>43.76194602766287</v>
       </c>
       <c r="G2">
-        <v>39.86231830805914</v>
+        <v>52.79316675476553</v>
       </c>
       <c r="H2">
-        <v>13.3472838612354</v>
+        <v>20.37363761606754</v>
       </c>
       <c r="I2">
-        <v>22.12389247336389</v>
+        <v>32.62031354980262</v>
       </c>
       <c r="J2">
-        <v>6.471078029619914</v>
+        <v>10.80047491848372</v>
       </c>
       <c r="K2">
-        <v>10.49557410912741</v>
+        <v>11.32208869761807</v>
       </c>
       <c r="L2">
-        <v>6.95893165636472</v>
+        <v>11.79266655893097</v>
       </c>
       <c r="M2">
-        <v>9.971119092455751</v>
+        <v>15.9620900634532</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69211984511313</v>
+        <v>13.57328223772181</v>
       </c>
       <c r="C3">
-        <v>6.353159121334786</v>
+        <v>5.927241403103127</v>
       </c>
       <c r="D3">
-        <v>3.967438717812191</v>
+        <v>7.076893557270616</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.60523056802153</v>
+        <v>43.82139688016896</v>
       </c>
       <c r="G3">
-        <v>39.4639353906137</v>
+        <v>52.84427887274726</v>
       </c>
       <c r="H3">
-        <v>13.37185247512736</v>
+        <v>20.4175095719532</v>
       </c>
       <c r="I3">
-        <v>22.17218936181223</v>
+        <v>32.69445577979634</v>
       </c>
       <c r="J3">
-        <v>6.515009921127795</v>
+        <v>10.81735564033697</v>
       </c>
       <c r="K3">
-        <v>9.838522192521628</v>
+        <v>11.22060214292735</v>
       </c>
       <c r="L3">
-        <v>6.896854886678881</v>
+        <v>11.80503006688283</v>
       </c>
       <c r="M3">
-        <v>9.706571196863784</v>
+        <v>15.95377303742342</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21493180078419</v>
+        <v>13.48719281285092</v>
       </c>
       <c r="C4">
-        <v>6.188525864627285</v>
+        <v>5.864399611568938</v>
       </c>
       <c r="D4">
-        <v>3.903981995617937</v>
+        <v>7.075978155568792</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.48320713554722</v>
+        <v>43.8656968381714</v>
       </c>
       <c r="G4">
-        <v>39.24743621838155</v>
+        <v>52.88670086973527</v>
       </c>
       <c r="H4">
-        <v>13.39385028862935</v>
+        <v>20.4472359031049</v>
       </c>
       <c r="I4">
-        <v>22.21427708826277</v>
+        <v>32.74482629668985</v>
       </c>
       <c r="J4">
-        <v>6.543036852516058</v>
+        <v>10.82831525157785</v>
       </c>
       <c r="K4">
-        <v>9.413030786816147</v>
+        <v>11.16015640888212</v>
       </c>
       <c r="L4">
-        <v>6.86113560260966</v>
+        <v>11.81396791122716</v>
       </c>
       <c r="M4">
-        <v>9.544703525653416</v>
+        <v>15.95093153853174</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01557356166624</v>
+        <v>13.45269233454891</v>
       </c>
       <c r="C5">
-        <v>6.120085480835038</v>
+        <v>5.838340374768144</v>
       </c>
       <c r="D5">
-        <v>3.87813231002316</v>
+        <v>7.075803524645825</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.43818496081803</v>
+        <v>43.88570844520562</v>
       </c>
       <c r="G5">
-        <v>39.16612745566452</v>
+        <v>52.90676037262596</v>
       </c>
       <c r="H5">
-        <v>13.40449898647052</v>
+        <v>20.46005077024401</v>
       </c>
       <c r="I5">
-        <v>22.23445005814654</v>
+        <v>32.76657071043153</v>
       </c>
       <c r="J5">
-        <v>6.554725389459303</v>
+        <v>10.8329313524803</v>
       </c>
       <c r="K5">
-        <v>9.234090411569726</v>
+        <v>11.13601897014913</v>
       </c>
       <c r="L5">
-        <v>6.847184000475266</v>
+        <v>11.81794934142171</v>
       </c>
       <c r="M5">
-        <v>9.478969614485193</v>
+        <v>15.95034571227713</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98217921473805</v>
+        <v>13.44699979550475</v>
       </c>
       <c r="C6">
-        <v>6.10864063385421</v>
+        <v>5.833986454052371</v>
       </c>
       <c r="D6">
-        <v>3.873841560874283</v>
+        <v>7.075786539184273</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.43098993048232</v>
+        <v>43.88914962226826</v>
       </c>
       <c r="G6">
-        <v>39.15303920492797</v>
+        <v>52.91025854577293</v>
       </c>
       <c r="H6">
-        <v>13.40636737932319</v>
+        <v>20.46222101273931</v>
       </c>
       <c r="I6">
-        <v>22.23797926870062</v>
+        <v>32.77025489533095</v>
       </c>
       <c r="J6">
-        <v>6.556682485025207</v>
+        <v>10.83370692237462</v>
       </c>
       <c r="K6">
-        <v>9.204042455876987</v>
+        <v>11.13204156099413</v>
       </c>
       <c r="L6">
-        <v>6.844903879989587</v>
+        <v>11.81863095691985</v>
       </c>
       <c r="M6">
-        <v>9.468070933481753</v>
+        <v>15.95028305893264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.2122628111969</v>
+        <v>13.48672512195119</v>
       </c>
       <c r="C7">
-        <v>6.187608269581444</v>
+        <v>5.864049973685511</v>
       </c>
       <c r="D7">
-        <v>3.90363329442175</v>
+        <v>7.075974995789383</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.48258105069667</v>
+        <v>43.86595879217602</v>
       </c>
       <c r="G7">
-        <v>39.24631186708444</v>
+        <v>52.88696018029898</v>
       </c>
       <c r="H7">
-        <v>13.39398715074733</v>
+        <v>20.44740589016455</v>
       </c>
       <c r="I7">
-        <v>22.21453704882338</v>
+        <v>32.74511461884042</v>
       </c>
       <c r="J7">
-        <v>6.543193402305174</v>
+        <v>10.82837689816162</v>
       </c>
       <c r="K7">
-        <v>9.410639999240637</v>
+        <v>11.15982884745996</v>
       </c>
       <c r="L7">
-        <v>6.860944997945928</v>
+        <v>11.81402023210268</v>
       </c>
       <c r="M7">
-        <v>9.543815973588089</v>
+        <v>15.9509213182906</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18416086037907</v>
+        <v>13.66702739306877</v>
       </c>
       <c r="C8">
-        <v>6.524113268680843</v>
+        <v>5.992719635041855</v>
       </c>
       <c r="D8">
-        <v>4.035091037550201</v>
+        <v>7.078545692308008</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.75181564355753</v>
+        <v>43.78082560887087</v>
       </c>
       <c r="G8">
-        <v>39.71903471501755</v>
+        <v>52.80849717316185</v>
       </c>
       <c r="H8">
-        <v>13.35428764213537</v>
+        <v>20.38818579707854</v>
       </c>
       <c r="I8">
-        <v>22.13790104792476</v>
+        <v>32.64487137516189</v>
       </c>
       <c r="J8">
-        <v>6.486008908326108</v>
+        <v>10.80617219073223</v>
       </c>
       <c r="K8">
-        <v>10.27359675756522</v>
+        <v>11.28672387824642</v>
       </c>
       <c r="L8">
-        <v>6.937031583313884</v>
+        <v>11.79665036227665</v>
       </c>
       <c r="M8">
-        <v>9.879836087048453</v>
+        <v>15.95875378150918</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.97306186926718</v>
+        <v>14.03599091496534</v>
       </c>
       <c r="C9">
-        <v>7.138924669579705</v>
+        <v>6.229805180634774</v>
       </c>
       <c r="D9">
-        <v>4.290756937799848</v>
+        <v>7.089768353275164</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.43585573637263</v>
+        <v>43.67580125424789</v>
       </c>
       <c r="G9">
-        <v>40.87518698476943</v>
+        <v>52.74234641380402</v>
       </c>
       <c r="H9">
-        <v>13.33376406351203</v>
+        <v>20.29418770939654</v>
       </c>
       <c r="I9">
-        <v>22.09108358788508</v>
+        <v>32.48678564418521</v>
       </c>
       <c r="J9">
-        <v>6.382097344861767</v>
+        <v>10.76732958414804</v>
       </c>
       <c r="K9">
-        <v>11.79138335986263</v>
+        <v>11.54923965972021</v>
       </c>
       <c r="L9">
-        <v>7.105141007746711</v>
+        <v>11.77324699308878</v>
       </c>
       <c r="M9">
-        <v>10.53969546470589</v>
+        <v>15.99196847133803</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.26153380914466</v>
+        <v>14.31407238711708</v>
       </c>
       <c r="C10">
-        <v>7.561937736630153</v>
+        <v>6.393980277979887</v>
       </c>
       <c r="D10">
-        <v>4.475617595063392</v>
+        <v>7.101717285377858</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.03910205030145</v>
+        <v>43.63644565847405</v>
       </c>
       <c r="G10">
-        <v>41.87180226669982</v>
+        <v>52.74733614541102</v>
       </c>
       <c r="H10">
-        <v>13.35714261115749</v>
+        <v>20.23862548203823</v>
       </c>
       <c r="I10">
-        <v>22.12656533069411</v>
+        <v>32.39414831279491</v>
       </c>
       <c r="J10">
-        <v>6.310588931930665</v>
+        <v>10.74163175916797</v>
       </c>
       <c r="K10">
-        <v>12.80144686659755</v>
+        <v>11.74887290273452</v>
       </c>
       <c r="L10">
-        <v>7.240002645567589</v>
+        <v>11.7625148734282</v>
       </c>
       <c r="M10">
-        <v>11.02068042930013</v>
+        <v>16.02708654865937</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.8179059131441</v>
+        <v>14.44158858992703</v>
       </c>
       <c r="C11">
-        <v>7.748020408340482</v>
+        <v>6.466353713448672</v>
       </c>
       <c r="D11">
-        <v>4.558760923635575</v>
+        <v>7.107942414179172</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.33646950721224</v>
+        <v>43.62675347501307</v>
       </c>
       <c r="G11">
-        <v>42.35853425733948</v>
+        <v>52.76124579001613</v>
       </c>
       <c r="H11">
-        <v>13.37691651690215</v>
+        <v>20.216280415216</v>
       </c>
       <c r="I11">
-        <v>22.15940322465812</v>
+        <v>32.3571176781072</v>
       </c>
       <c r="J11">
-        <v>6.279067133493463</v>
+        <v>10.73055231106809</v>
       </c>
       <c r="K11">
-        <v>13.2385430299412</v>
+        <v>11.8408166086522</v>
       </c>
       <c r="L11">
-        <v>7.303776033578177</v>
+        <v>11.75902746452257</v>
       </c>
       <c r="M11">
-        <v>11.23786708265867</v>
+        <v>16.04534845089827</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.02437278727564</v>
+        <v>14.4899790567539</v>
       </c>
       <c r="C12">
-        <v>7.817568860662987</v>
+        <v>6.493416451237246</v>
       </c>
       <c r="D12">
-        <v>4.590086158482558</v>
+        <v>7.11041185458329</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.45245552914701</v>
+        <v>43.62426322137135</v>
       </c>
       <c r="G12">
-        <v>42.54774567987115</v>
+        <v>52.76818491063668</v>
       </c>
       <c r="H12">
-        <v>13.38578575644689</v>
+        <v>20.20824031408998</v>
       </c>
       <c r="I12">
-        <v>22.17436863392127</v>
+        <v>32.34383055390912</v>
       </c>
       <c r="J12">
-        <v>6.267272164704382</v>
+        <v>10.726444203857</v>
       </c>
       <c r="K12">
-        <v>13.40087960008685</v>
+        <v>11.87576670478954</v>
       </c>
       <c r="L12">
-        <v>7.328269845328069</v>
+        <v>11.75790664297966</v>
       </c>
       <c r="M12">
-        <v>11.31982050991037</v>
+        <v>16.05258865820717</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.98009310956485</v>
+        <v>14.47955341197451</v>
       </c>
       <c r="C13">
-        <v>7.802631149223823</v>
+        <v>6.487603456011312</v>
       </c>
       <c r="D13">
-        <v>4.583347126690659</v>
+        <v>7.109875052965052</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.42732432014974</v>
+        <v>43.6247470804173</v>
       </c>
       <c r="G13">
-        <v>42.5067763109887</v>
+        <v>52.76661613495718</v>
       </c>
       <c r="H13">
-        <v>13.3838130826061</v>
+        <v>20.20995314678915</v>
       </c>
       <c r="I13">
-        <v>22.17103092632913</v>
+        <v>32.34665944913102</v>
       </c>
       <c r="J13">
-        <v>6.269806175497586</v>
+        <v>10.72732507517351</v>
       </c>
       <c r="K13">
-        <v>13.36605840908781</v>
+        <v>11.8682341280809</v>
       </c>
       <c r="L13">
-        <v>7.322979423177721</v>
+        <v>11.75813915921655</v>
       </c>
       <c r="M13">
-        <v>11.30218413509201</v>
+        <v>16.0510149693402</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83497626999472</v>
+        <v>14.44556788712499</v>
       </c>
       <c r="C14">
-        <v>7.753760583980242</v>
+        <v>6.468587127643485</v>
       </c>
       <c r="D14">
-        <v>4.561341382904641</v>
+        <v>7.108143337779143</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.34594357081482</v>
+        <v>43.62652495828365</v>
       </c>
       <c r="G14">
-        <v>42.37400211033413</v>
+        <v>52.76178318485913</v>
       </c>
       <c r="H14">
-        <v>13.37761811954096</v>
+        <v>20.21561050357861</v>
       </c>
       <c r="I14">
-        <v>22.16058297089431</v>
+        <v>32.3560097928366</v>
       </c>
       <c r="J14">
-        <v>6.278093934506132</v>
+        <v>10.73021258429281</v>
       </c>
       <c r="K14">
-        <v>13.25196210632765</v>
+        <v>11.8436894765896</v>
       </c>
       <c r="L14">
-        <v>7.305784280013579</v>
+        <v>11.7589312544481</v>
       </c>
       <c r="M14">
-        <v>11.24461556726505</v>
+        <v>16.04593762082696</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.74554039360258</v>
+        <v>14.42476289231675</v>
       </c>
       <c r="C15">
-        <v>7.723706499655589</v>
+        <v>6.456894019993984</v>
       </c>
       <c r="D15">
-        <v>4.547840853502018</v>
+        <v>7.107097170592942</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.29653793353977</v>
+        <v>43.62776759476195</v>
       </c>
       <c r="G15">
-        <v>42.29331461012859</v>
+        <v>52.75904050823471</v>
       </c>
       <c r="H15">
-        <v>13.37400543840287</v>
+        <v>20.21913069051367</v>
       </c>
       <c r="I15">
-        <v>22.15451673155313</v>
+        <v>32.36183296039081</v>
       </c>
       <c r="J15">
-        <v>6.283188774651402</v>
+        <v>10.73199264334269</v>
       </c>
       <c r="K15">
-        <v>13.18166157817056</v>
+        <v>11.82867161886694</v>
       </c>
       <c r="L15">
-        <v>7.295296458460084</v>
+        <v>11.75944242988357</v>
       </c>
       <c r="M15">
-        <v>11.20931373743045</v>
+        <v>16.04286977751418</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.22457982448284</v>
+        <v>14.30575563675746</v>
       </c>
       <c r="C16">
-        <v>7.549648573374175</v>
+        <v>6.389203031056728</v>
       </c>
       <c r="D16">
-        <v>4.470162856193519</v>
+        <v>7.101326226180207</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.0201370146976</v>
+        <v>43.63724423764813</v>
       </c>
       <c r="G16">
-        <v>41.84067313414735</v>
+        <v>52.74666120035332</v>
       </c>
       <c r="H16">
-        <v>13.35603992939648</v>
+        <v>20.24014476215424</v>
       </c>
       <c r="I16">
-        <v>22.12476626569179</v>
+        <v>32.39667124965954</v>
       </c>
       <c r="J16">
-        <v>6.312668958047028</v>
+        <v>10.74236808294716</v>
       </c>
       <c r="K16">
-        <v>12.77243417444801</v>
+        <v>11.74288437885262</v>
       </c>
       <c r="L16">
-        <v>7.235883307142518</v>
+        <v>11.76277078368452</v>
       </c>
       <c r="M16">
-        <v>11.00644911904855</v>
+        <v>16.02593876639145</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.89740712541646</v>
+        <v>14.2329777839743</v>
       </c>
       <c r="C17">
-        <v>7.441239040082571</v>
+        <v>6.347076775284452</v>
       </c>
       <c r="D17">
-        <v>4.42224946517632</v>
+        <v>7.097987164550582</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.85650894979079</v>
+        <v>43.64516049218765</v>
       </c>
       <c r="G17">
-        <v>41.57160991635454</v>
+        <v>52.74204711591537</v>
       </c>
       <c r="H17">
-        <v>13.3474064804223</v>
+        <v>20.25378685759218</v>
       </c>
       <c r="I17">
-        <v>22.1108827991454</v>
+        <v>32.41935286130569</v>
       </c>
       <c r="J17">
-        <v>6.331009921046421</v>
+        <v>10.74888921146227</v>
       </c>
       <c r="K17">
-        <v>12.51567739951127</v>
+        <v>11.69052504887505</v>
       </c>
       <c r="L17">
-        <v>7.200052991891891</v>
+        <v>11.76516930010977</v>
       </c>
       <c r="M17">
-        <v>10.88154069197019</v>
+        <v>16.01613501664386</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.70642109432757</v>
+        <v>14.19121603931179</v>
       </c>
       <c r="C18">
-        <v>7.378287121100239</v>
+        <v>6.322630007998077</v>
       </c>
       <c r="D18">
-        <v>4.394602648825198</v>
+        <v>7.096141024281935</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.76454982812809</v>
+        <v>43.65048663741195</v>
       </c>
       <c r="G18">
-        <v>41.41998703014241</v>
+        <v>52.74048900002689</v>
       </c>
       <c r="H18">
-        <v>13.3432968078612</v>
+        <v>20.26190925674298</v>
       </c>
       <c r="I18">
-        <v>22.10446105379278</v>
+        <v>32.43287971857912</v>
       </c>
       <c r="J18">
-        <v>6.341654213094388</v>
+        <v>10.75269748842164</v>
       </c>
       <c r="K18">
-        <v>12.36588802664263</v>
+        <v>11.66051742743641</v>
       </c>
       <c r="L18">
-        <v>7.17967277609788</v>
+        <v>11.766680186642</v>
       </c>
       <c r="M18">
-        <v>10.80954758877525</v>
+        <v>16.01071162961728</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.64127296055997</v>
+        <v>14.17709441078122</v>
       </c>
       <c r="C19">
-        <v>7.356870258777874</v>
+        <v>6.31431586062354</v>
       </c>
       <c r="D19">
-        <v>4.38522747974663</v>
+        <v>7.095528773083773</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.73378177513702</v>
+        <v>43.65242274327907</v>
       </c>
       <c r="G19">
-        <v>41.36918551270043</v>
+        <v>52.74014969062779</v>
       </c>
       <c r="H19">
-        <v>13.34205036012564</v>
+        <v>20.26470673152453</v>
       </c>
       <c r="I19">
-        <v>22.10255143530147</v>
+        <v>32.43754226898373</v>
       </c>
       <c r="J19">
-        <v>6.345274610617207</v>
+        <v>10.75399679186042</v>
       </c>
       <c r="K19">
-        <v>12.31480853335437</v>
+        <v>11.65037682228984</v>
       </c>
       <c r="L19">
-        <v>7.172811754588839</v>
+        <v>11.76721432448603</v>
       </c>
       <c r="M19">
-        <v>10.78514824920691</v>
+        <v>16.00891248849209</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.93252509104117</v>
+        <v>14.24071526664292</v>
       </c>
       <c r="C20">
-        <v>7.452841319440026</v>
+        <v>6.351583714852558</v>
       </c>
       <c r="D20">
-        <v>4.427359238789653</v>
+        <v>7.098334923305563</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.8737037751395</v>
+        <v>43.64423780220738</v>
       </c>
       <c r="G20">
-        <v>41.59992695040034</v>
+        <v>52.74242489389641</v>
       </c>
       <c r="H20">
-        <v>13.34823644722849</v>
+        <v>20.25230608538874</v>
       </c>
       <c r="I20">
-        <v>22.11219795916982</v>
+        <v>32.41688857867065</v>
       </c>
       <c r="J20">
-        <v>6.329047679588077</v>
+        <v>10.74818907821735</v>
       </c>
       <c r="K20">
-        <v>12.54322768634488</v>
+        <v>11.69608781628978</v>
       </c>
       <c r="L20">
-        <v>7.203843580314809</v>
+        <v>11.76490038790556</v>
       </c>
       <c r="M20">
-        <v>10.89485328114789</v>
+        <v>16.01715637019979</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87771461569441</v>
+        <v>14.45554781003375</v>
       </c>
       <c r="C21">
-        <v>7.768139947015045</v>
+        <v>6.474182093289993</v>
       </c>
       <c r="D21">
-        <v>4.56780949456272</v>
+        <v>7.108648953156645</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.36975473035768</v>
+        <v>43.62597073716699</v>
       </c>
       <c r="G21">
-        <v>42.41286745481884</v>
+        <v>52.7631573876028</v>
       </c>
       <c r="H21">
-        <v>13.3793996972212</v>
+        <v>20.21393736109019</v>
       </c>
       <c r="I21">
-        <v>22.16358206523061</v>
+        <v>32.35324340200228</v>
       </c>
       <c r="J21">
-        <v>6.27565580098506</v>
+        <v>10.72936208270233</v>
       </c>
       <c r="K21">
-        <v>13.28556100425687</v>
+        <v>11.85089545989189</v>
       </c>
       <c r="L21">
-        <v>7.310825602405016</v>
+        <v>11.75869318113958</v>
       </c>
       <c r="M21">
-        <v>11.26153315919983</v>
+        <v>16.04742017847026</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.47088812598557</v>
+        <v>14.59653313973885</v>
       </c>
       <c r="C22">
-        <v>7.968862695083183</v>
+        <v>6.552300236166733</v>
       </c>
       <c r="D22">
-        <v>4.658664540483084</v>
+        <v>7.116042588434858</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.71368622194746</v>
+        <v>43.62090916738261</v>
       </c>
       <c r="G22">
-        <v>42.97275567988616</v>
+        <v>52.78645029037089</v>
       </c>
       <c r="H22">
-        <v>13.40785056449399</v>
+        <v>20.19131796441822</v>
       </c>
       <c r="I22">
-        <v>22.21197632645889</v>
+        <v>32.31593533549045</v>
       </c>
       <c r="J22">
-        <v>6.241585175242187</v>
+        <v>10.71756704807164</v>
       </c>
       <c r="K22">
-        <v>13.75219050797749</v>
+        <v>11.95283293170274</v>
       </c>
       <c r="L22">
-        <v>7.38274904320371</v>
+        <v>11.75580052094421</v>
       </c>
       <c r="M22">
-        <v>11.49946516573369</v>
+        <v>16.06909062294486</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.15652705490552</v>
+        <v>14.5212476888013</v>
       </c>
       <c r="C23">
-        <v>7.862222037041986</v>
+        <v>6.510794291468694</v>
       </c>
       <c r="D23">
-        <v>4.610266027299437</v>
+        <v>7.112037214223052</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.52829211375064</v>
+        <v>43.62298176273442</v>
       </c>
       <c r="G23">
-        <v>42.67128563946051</v>
+        <v>52.77312789366005</v>
       </c>
       <c r="H23">
-        <v>13.39190339788885</v>
+        <v>20.20316554697104</v>
       </c>
       <c r="I23">
-        <v>22.18474843840536</v>
+        <v>32.33545482335125</v>
       </c>
       <c r="J23">
-        <v>6.25969501837159</v>
+        <v>10.72381578165667</v>
       </c>
       <c r="K23">
-        <v>13.50482348642963</v>
+        <v>11.89836697715275</v>
       </c>
       <c r="L23">
-        <v>7.344180119426394</v>
+        <v>11.75723813803214</v>
       </c>
       <c r="M23">
-        <v>11.37265047852746</v>
+        <v>16.05735301977078</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.91665726529222</v>
+        <v>14.23721690069184</v>
       </c>
       <c r="C24">
-        <v>7.447597877893249</v>
+        <v>6.349546836265094</v>
       </c>
       <c r="D24">
-        <v>4.425049422265259</v>
+        <v>7.098177472441826</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.86592341963612</v>
+        <v>43.64465253622109</v>
       </c>
       <c r="G24">
-        <v>41.58711527955268</v>
+        <v>52.74225069071555</v>
       </c>
       <c r="H24">
-        <v>13.34785856485769</v>
+        <v>20.25297467223618</v>
       </c>
       <c r="I24">
-        <v>22.11159852588629</v>
+        <v>32.4180011642067</v>
       </c>
       <c r="J24">
-        <v>6.329934497764082</v>
+        <v>10.7485054240462</v>
       </c>
       <c r="K24">
-        <v>12.53077898366594</v>
+        <v>11.69357259267889</v>
       </c>
       <c r="L24">
-        <v>7.20212917247424</v>
+        <v>11.76502155205472</v>
       </c>
       <c r="M24">
-        <v>10.888835220679</v>
+        <v>16.01669395273498</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.47308681387658</v>
+        <v>13.93477289272715</v>
       </c>
       <c r="C25">
-        <v>6.977576551469842</v>
+        <v>6.167375543599278</v>
       </c>
       <c r="D25">
-        <v>4.222002273400157</v>
+        <v>7.086076997330561</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.2335006305707</v>
+        <v>43.6975761876475</v>
       </c>
       <c r="G25">
-        <v>40.53706462999591</v>
+        <v>52.75083499678426</v>
       </c>
       <c r="H25">
-        <v>13.33282272880712</v>
+        <v>20.31724653162081</v>
       </c>
       <c r="I25">
-        <v>22.09198107856719</v>
+        <v>32.5254265389506</v>
       </c>
       <c r="J25">
-        <v>6.409345667875733</v>
+        <v>10.77733697667344</v>
       </c>
       <c r="K25">
-        <v>11.39934879658404</v>
+        <v>11.47691876126244</v>
       </c>
       <c r="L25">
-        <v>7.057655049198678</v>
+        <v>11.77844063064837</v>
       </c>
       <c r="M25">
-        <v>10.36156191697639</v>
+        <v>15.98108806079533</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.71700912156666</v>
+        <v>12.43663118244618</v>
       </c>
       <c r="C2">
-        <v>6.02658000870023</v>
+        <v>6.612298646294751</v>
       </c>
       <c r="D2">
-        <v>7.079662815943526</v>
+        <v>4.070633465310818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.76194602766287</v>
+        <v>30.83510629989735</v>
       </c>
       <c r="G2">
-        <v>52.79316675476553</v>
+        <v>39.86231830805926</v>
       </c>
       <c r="H2">
-        <v>20.37363761606754</v>
+        <v>13.34728386123531</v>
       </c>
       <c r="I2">
-        <v>32.62031354980262</v>
+        <v>22.12389247336399</v>
       </c>
       <c r="J2">
-        <v>10.80047491848372</v>
+        <v>6.47107802961979</v>
       </c>
       <c r="K2">
-        <v>11.32208869761807</v>
+        <v>10.49557410912745</v>
       </c>
       <c r="L2">
-        <v>11.79266655893097</v>
+        <v>6.958931656364667</v>
       </c>
       <c r="M2">
-        <v>15.9620900634532</v>
+        <v>9.971119092455732</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.57328223772181</v>
+        <v>11.69211984511307</v>
       </c>
       <c r="C3">
-        <v>5.927241403103127</v>
+        <v>6.353159121334921</v>
       </c>
       <c r="D3">
-        <v>7.076893557270616</v>
+        <v>3.967438717812287</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.82139688016896</v>
+        <v>30.60523056802122</v>
       </c>
       <c r="G3">
-        <v>52.84427887274726</v>
+        <v>39.46393539061324</v>
       </c>
       <c r="H3">
-        <v>20.4175095719532</v>
+        <v>13.37185247512721</v>
       </c>
       <c r="I3">
-        <v>32.69445577979634</v>
+        <v>22.17218936181192</v>
       </c>
       <c r="J3">
-        <v>10.81735564033697</v>
+        <v>6.515009921127861</v>
       </c>
       <c r="K3">
-        <v>11.22060214292735</v>
+        <v>9.838522192521705</v>
       </c>
       <c r="L3">
-        <v>11.80503006688283</v>
+        <v>6.896854886678986</v>
       </c>
       <c r="M3">
-        <v>15.95377303742342</v>
+        <v>9.706571196863781</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.48719281285092</v>
+        <v>11.21493180078421</v>
       </c>
       <c r="C4">
-        <v>5.864399611568938</v>
+        <v>6.188525864627273</v>
       </c>
       <c r="D4">
-        <v>7.075978155568792</v>
+        <v>3.903981995617794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>43.8656968381714</v>
+        <v>30.48320713554734</v>
       </c>
       <c r="G4">
-        <v>52.88670086973527</v>
+        <v>39.24743621838203</v>
       </c>
       <c r="H4">
-        <v>20.4472359031049</v>
+        <v>13.39385028862937</v>
       </c>
       <c r="I4">
-        <v>32.74482629668985</v>
+        <v>22.21427708826291</v>
       </c>
       <c r="J4">
-        <v>10.82831525157785</v>
+        <v>6.543036852516123</v>
       </c>
       <c r="K4">
-        <v>11.16015640888212</v>
+        <v>9.41303078681611</v>
       </c>
       <c r="L4">
-        <v>11.81396791122716</v>
+        <v>6.861135602609711</v>
       </c>
       <c r="M4">
-        <v>15.95093153853174</v>
+        <v>9.544703525653455</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.45269233454891</v>
+        <v>11.01557356166625</v>
       </c>
       <c r="C5">
-        <v>5.838340374768144</v>
+        <v>6.120085480835038</v>
       </c>
       <c r="D5">
-        <v>7.075803524645825</v>
+        <v>3.878132310023171</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>43.88570844520562</v>
+        <v>30.43818496081788</v>
       </c>
       <c r="G5">
-        <v>52.90676037262596</v>
+        <v>39.16612745566437</v>
       </c>
       <c r="H5">
-        <v>20.46005077024401</v>
+        <v>13.40449898647041</v>
       </c>
       <c r="I5">
-        <v>32.76657071043153</v>
+        <v>22.2344500581464</v>
       </c>
       <c r="J5">
-        <v>10.8329313524803</v>
+        <v>6.554725389459339</v>
       </c>
       <c r="K5">
-        <v>11.13601897014913</v>
+        <v>9.234090411569735</v>
       </c>
       <c r="L5">
-        <v>11.81794934142171</v>
+        <v>6.847184000475235</v>
       </c>
       <c r="M5">
-        <v>15.95034571227713</v>
+        <v>9.478969614485193</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.44699979550475</v>
+        <v>10.98217921473805</v>
       </c>
       <c r="C6">
-        <v>5.833986454052371</v>
+        <v>6.108640633854201</v>
       </c>
       <c r="D6">
-        <v>7.075786539184273</v>
+        <v>3.873841560874272</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>43.88914962226826</v>
+        <v>30.43098993048239</v>
       </c>
       <c r="G6">
-        <v>52.91025854577293</v>
+        <v>39.15303920492811</v>
       </c>
       <c r="H6">
-        <v>20.46222101273931</v>
+        <v>13.40636737932319</v>
       </c>
       <c r="I6">
-        <v>32.77025489533095</v>
+        <v>22.23797926870071</v>
       </c>
       <c r="J6">
-        <v>10.83370692237462</v>
+        <v>6.556682485025308</v>
       </c>
       <c r="K6">
-        <v>11.13204156099413</v>
+        <v>9.204042455876946</v>
       </c>
       <c r="L6">
-        <v>11.81863095691985</v>
+        <v>6.844903879989607</v>
       </c>
       <c r="M6">
-        <v>15.95028305893264</v>
+        <v>9.468070933481794</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.48672512195119</v>
+        <v>11.21226281119696</v>
       </c>
       <c r="C7">
-        <v>5.864049973685511</v>
+        <v>6.187608269581771</v>
       </c>
       <c r="D7">
-        <v>7.075974995789383</v>
+        <v>3.903633294421694</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>43.86595879217602</v>
+        <v>30.4825810506968</v>
       </c>
       <c r="G7">
-        <v>52.88696018029898</v>
+        <v>39.24631186708454</v>
       </c>
       <c r="H7">
-        <v>20.44740589016455</v>
+        <v>13.39398715074741</v>
       </c>
       <c r="I7">
-        <v>32.74511461884042</v>
+        <v>22.21453704882358</v>
       </c>
       <c r="J7">
-        <v>10.82837689816162</v>
+        <v>6.543193402305272</v>
       </c>
       <c r="K7">
-        <v>11.15982884745996</v>
+        <v>9.410639999240617</v>
       </c>
       <c r="L7">
-        <v>11.81402023210268</v>
+        <v>6.860944997945976</v>
       </c>
       <c r="M7">
-        <v>15.9509213182906</v>
+        <v>9.543815973588151</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.66702739306877</v>
+        <v>12.18416086037906</v>
       </c>
       <c r="C8">
-        <v>5.992719635041855</v>
+        <v>6.524113268680718</v>
       </c>
       <c r="D8">
-        <v>7.078545692308008</v>
+        <v>4.035091037550212</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.78082560887087</v>
+        <v>30.7518156435574</v>
       </c>
       <c r="G8">
-        <v>52.80849717316185</v>
+        <v>39.71903471501747</v>
       </c>
       <c r="H8">
-        <v>20.38818579707854</v>
+        <v>13.35428764213531</v>
       </c>
       <c r="I8">
-        <v>32.64487137516189</v>
+        <v>22.1379010479246</v>
       </c>
       <c r="J8">
-        <v>10.80617219073223</v>
+        <v>6.486008908326111</v>
       </c>
       <c r="K8">
-        <v>11.28672387824642</v>
+        <v>10.27359675756523</v>
       </c>
       <c r="L8">
-        <v>11.79665036227665</v>
+        <v>6.937031583313937</v>
       </c>
       <c r="M8">
-        <v>15.95875378150918</v>
+        <v>9.879836087048442</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.03599091496534</v>
+        <v>13.97306186926718</v>
       </c>
       <c r="C9">
-        <v>6.229805180634774</v>
+        <v>7.138924669579666</v>
       </c>
       <c r="D9">
-        <v>7.089768353275164</v>
+        <v>4.290756937799854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.67580125424789</v>
+        <v>31.4358557363728</v>
       </c>
       <c r="G9">
-        <v>52.74234641380402</v>
+        <v>40.87518698476963</v>
       </c>
       <c r="H9">
-        <v>20.29418770939654</v>
+        <v>13.33376406351214</v>
       </c>
       <c r="I9">
-        <v>32.48678564418521</v>
+        <v>22.09108358788521</v>
       </c>
       <c r="J9">
-        <v>10.76732958414804</v>
+        <v>6.382097344861767</v>
       </c>
       <c r="K9">
-        <v>11.54923965972021</v>
+        <v>11.79138335986262</v>
       </c>
       <c r="L9">
-        <v>11.77324699308878</v>
+        <v>7.105141007746732</v>
       </c>
       <c r="M9">
-        <v>15.99196847133803</v>
+        <v>10.5396954647059</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.31407238711708</v>
+        <v>15.26153380914468</v>
       </c>
       <c r="C10">
-        <v>6.393980277979887</v>
+        <v>7.561937736630135</v>
       </c>
       <c r="D10">
-        <v>7.101717285377858</v>
+        <v>4.475617595063359</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.63644565847405</v>
+        <v>32.03910205030163</v>
       </c>
       <c r="G10">
-        <v>52.74733614541102</v>
+        <v>41.87180226670001</v>
       </c>
       <c r="H10">
-        <v>20.23862548203823</v>
+        <v>13.35714261115755</v>
       </c>
       <c r="I10">
-        <v>32.39414831279491</v>
+        <v>22.12656533069428</v>
       </c>
       <c r="J10">
-        <v>10.74163175916797</v>
+        <v>6.310588931930733</v>
       </c>
       <c r="K10">
-        <v>11.74887290273452</v>
+        <v>12.80144686659755</v>
       </c>
       <c r="L10">
-        <v>11.7625148734282</v>
+        <v>7.240002645567639</v>
       </c>
       <c r="M10">
-        <v>16.02708654865937</v>
+        <v>11.02068042930015</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.44158858992703</v>
+        <v>15.81790591314412</v>
       </c>
       <c r="C11">
-        <v>6.466353713448672</v>
+        <v>7.748020408340257</v>
       </c>
       <c r="D11">
-        <v>7.107942414179172</v>
+        <v>4.558760923635563</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>43.62675347501307</v>
+        <v>32.33646950721222</v>
       </c>
       <c r="G11">
-        <v>52.76124579001613</v>
+        <v>42.35853425733944</v>
       </c>
       <c r="H11">
-        <v>20.216280415216</v>
+        <v>13.3769165169022</v>
       </c>
       <c r="I11">
-        <v>32.3571176781072</v>
+        <v>22.15940322465811</v>
       </c>
       <c r="J11">
-        <v>10.73055231106809</v>
+        <v>6.279067133493397</v>
       </c>
       <c r="K11">
-        <v>11.8408166086522</v>
+        <v>13.23854302994116</v>
       </c>
       <c r="L11">
-        <v>11.75902746452257</v>
+        <v>7.303776033578158</v>
       </c>
       <c r="M11">
-        <v>16.04534845089827</v>
+        <v>11.23786708265866</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.4899790567539</v>
+        <v>16.02437278727565</v>
       </c>
       <c r="C12">
-        <v>6.493416451237246</v>
+        <v>7.817568860662677</v>
       </c>
       <c r="D12">
-        <v>7.11041185458329</v>
+        <v>4.590086158482483</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>43.62426322137135</v>
+        <v>32.45245552914688</v>
       </c>
       <c r="G12">
-        <v>52.76818491063668</v>
+        <v>42.54774567987116</v>
       </c>
       <c r="H12">
-        <v>20.20824031408998</v>
+        <v>13.38578575644686</v>
       </c>
       <c r="I12">
-        <v>32.34383055390912</v>
+        <v>22.17436863392113</v>
       </c>
       <c r="J12">
-        <v>10.726444203857</v>
+        <v>6.267272164704388</v>
       </c>
       <c r="K12">
-        <v>11.87576670478954</v>
+        <v>13.40087960008679</v>
       </c>
       <c r="L12">
-        <v>11.75790664297966</v>
+        <v>7.328269845328108</v>
       </c>
       <c r="M12">
-        <v>16.05258865820717</v>
+        <v>11.31982050991038</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.47955341197451</v>
+        <v>15.98009310956481</v>
       </c>
       <c r="C13">
-        <v>6.487603456011312</v>
+        <v>7.802631149223997</v>
       </c>
       <c r="D13">
-        <v>7.109875052965052</v>
+        <v>4.58334712669066</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.6247470804173</v>
+        <v>32.42732432014971</v>
       </c>
       <c r="G13">
-        <v>52.76661613495718</v>
+        <v>42.50677631098866</v>
       </c>
       <c r="H13">
-        <v>20.20995314678915</v>
+        <v>13.3838130826061</v>
       </c>
       <c r="I13">
-        <v>32.34665944913102</v>
+        <v>22.17103092632914</v>
       </c>
       <c r="J13">
-        <v>10.72732507517351</v>
+        <v>6.269806175497525</v>
       </c>
       <c r="K13">
-        <v>11.8682341280809</v>
+        <v>13.36605840908782</v>
       </c>
       <c r="L13">
-        <v>11.75813915921655</v>
+        <v>7.322979423177648</v>
       </c>
       <c r="M13">
-        <v>16.0510149693402</v>
+        <v>11.30218413509199</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.44556788712499</v>
+        <v>15.83497626999474</v>
       </c>
       <c r="C14">
-        <v>6.468587127643485</v>
+        <v>7.753760583979999</v>
       </c>
       <c r="D14">
-        <v>7.108143337779143</v>
+        <v>4.561341382904562</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>43.62652495828365</v>
+        <v>32.34594357081478</v>
       </c>
       <c r="G14">
-        <v>52.76178318485913</v>
+        <v>42.37400211033419</v>
       </c>
       <c r="H14">
-        <v>20.21561050357861</v>
+        <v>13.37761811954088</v>
       </c>
       <c r="I14">
-        <v>32.3560097928366</v>
+        <v>22.16058297089428</v>
       </c>
       <c r="J14">
-        <v>10.73021258429281</v>
+        <v>6.278093934506107</v>
       </c>
       <c r="K14">
-        <v>11.8436894765896</v>
+        <v>13.25196210632764</v>
       </c>
       <c r="L14">
-        <v>11.7589312544481</v>
+        <v>7.305784280013553</v>
       </c>
       <c r="M14">
-        <v>16.04593762082696</v>
+        <v>11.24461556726502</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.42476289231675</v>
+        <v>15.74554039360264</v>
       </c>
       <c r="C15">
-        <v>6.456894019993984</v>
+        <v>7.723706499655797</v>
       </c>
       <c r="D15">
-        <v>7.107097170592942</v>
+        <v>4.547840853502144</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>43.62776759476195</v>
+        <v>32.29653793353956</v>
       </c>
       <c r="G15">
-        <v>52.75904050823471</v>
+        <v>42.29331461012816</v>
       </c>
       <c r="H15">
-        <v>20.21913069051367</v>
+        <v>13.37400543840282</v>
       </c>
       <c r="I15">
-        <v>32.36183296039081</v>
+        <v>22.15451673155292</v>
       </c>
       <c r="J15">
-        <v>10.73199264334269</v>
+        <v>6.283188774651208</v>
       </c>
       <c r="K15">
-        <v>11.82867161886694</v>
+        <v>13.18166157817066</v>
       </c>
       <c r="L15">
-        <v>11.75944242988357</v>
+        <v>7.295296458460069</v>
       </c>
       <c r="M15">
-        <v>16.04286977751418</v>
+        <v>11.20931373743041</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.30575563675746</v>
+        <v>15.22457982448289</v>
       </c>
       <c r="C16">
-        <v>6.389203031056728</v>
+        <v>7.54964857337425</v>
       </c>
       <c r="D16">
-        <v>7.101326226180207</v>
+        <v>4.470162856193315</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.63724423764813</v>
+        <v>32.02013701469718</v>
       </c>
       <c r="G16">
-        <v>52.74666120035332</v>
+        <v>41.84067313414695</v>
       </c>
       <c r="H16">
-        <v>20.24014476215424</v>
+        <v>13.35603992939635</v>
       </c>
       <c r="I16">
-        <v>32.39667124965954</v>
+        <v>22.12476626569156</v>
       </c>
       <c r="J16">
-        <v>10.74236808294716</v>
+        <v>6.312668958046965</v>
       </c>
       <c r="K16">
-        <v>11.74288437885262</v>
+        <v>12.77243417444809</v>
       </c>
       <c r="L16">
-        <v>11.76277078368452</v>
+        <v>7.235883307142367</v>
       </c>
       <c r="M16">
-        <v>16.02593876639145</v>
+        <v>11.00644911904846</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.2329777839743</v>
+        <v>14.89740712541647</v>
       </c>
       <c r="C17">
-        <v>6.347076775284452</v>
+        <v>7.441239040082415</v>
       </c>
       <c r="D17">
-        <v>7.097987164550582</v>
+        <v>4.422249465176328</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.64516049218765</v>
+        <v>31.85650894979094</v>
       </c>
       <c r="G17">
-        <v>52.74204711591537</v>
+        <v>41.57160991635473</v>
       </c>
       <c r="H17">
-        <v>20.25378685759218</v>
+        <v>13.34740648042242</v>
       </c>
       <c r="I17">
-        <v>32.41935286130569</v>
+        <v>22.11088279914551</v>
       </c>
       <c r="J17">
-        <v>10.74888921146227</v>
+        <v>6.331009921046459</v>
       </c>
       <c r="K17">
-        <v>11.69052504887505</v>
+        <v>12.51567739951126</v>
       </c>
       <c r="L17">
-        <v>11.76516930010977</v>
+        <v>7.200052991891935</v>
       </c>
       <c r="M17">
-        <v>16.01613501664386</v>
+        <v>10.88154069197021</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.19121603931179</v>
+        <v>14.7064210943276</v>
       </c>
       <c r="C18">
-        <v>6.322630007998077</v>
+        <v>7.378287121100111</v>
       </c>
       <c r="D18">
-        <v>7.096141024281935</v>
+        <v>4.394602648825292</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.65048663741195</v>
+        <v>31.7645498281283</v>
       </c>
       <c r="G18">
-        <v>52.74048900002689</v>
+        <v>41.41998703014274</v>
       </c>
       <c r="H18">
-        <v>20.26190925674298</v>
+        <v>13.34329680786124</v>
       </c>
       <c r="I18">
-        <v>32.43287971857912</v>
+        <v>22.10446105379282</v>
       </c>
       <c r="J18">
-        <v>10.75269748842164</v>
+        <v>6.341654213094423</v>
       </c>
       <c r="K18">
-        <v>11.66051742743641</v>
+        <v>12.36588802664262</v>
       </c>
       <c r="L18">
-        <v>11.766680186642</v>
+        <v>7.179672776097979</v>
       </c>
       <c r="M18">
-        <v>16.01071162961728</v>
+        <v>10.80954758877528</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17709441078122</v>
+        <v>14.64127296056003</v>
       </c>
       <c r="C19">
-        <v>6.31431586062354</v>
+        <v>7.356870258777964</v>
       </c>
       <c r="D19">
-        <v>7.095528773083773</v>
+        <v>4.385227479746698</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.65242274327907</v>
+        <v>31.73378177513686</v>
       </c>
       <c r="G19">
-        <v>52.74014969062779</v>
+        <v>41.36918551270007</v>
       </c>
       <c r="H19">
-        <v>20.26470673152453</v>
+        <v>13.3420503601256</v>
       </c>
       <c r="I19">
-        <v>32.43754226898373</v>
+        <v>22.10255143530127</v>
       </c>
       <c r="J19">
-        <v>10.75399679186042</v>
+        <v>6.345274610617079</v>
       </c>
       <c r="K19">
-        <v>11.65037682228984</v>
+        <v>12.31480853335443</v>
       </c>
       <c r="L19">
-        <v>11.76721432448603</v>
+        <v>7.172811754588797</v>
       </c>
       <c r="M19">
-        <v>16.00891248849209</v>
+        <v>10.78514824920687</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.24071526664292</v>
+        <v>14.9325250910411</v>
       </c>
       <c r="C20">
-        <v>6.351583714852558</v>
+        <v>7.452841319440033</v>
       </c>
       <c r="D20">
-        <v>7.098334923305563</v>
+        <v>4.427359238789626</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.64423780220738</v>
+        <v>31.87370377513972</v>
       </c>
       <c r="G20">
-        <v>52.74242489389641</v>
+        <v>41.5999269504007</v>
       </c>
       <c r="H20">
-        <v>20.25230608538874</v>
+        <v>13.34823644722861</v>
       </c>
       <c r="I20">
-        <v>32.41688857867065</v>
+        <v>22.11219795916999</v>
       </c>
       <c r="J20">
-        <v>10.74818907821735</v>
+        <v>6.329047679588043</v>
       </c>
       <c r="K20">
-        <v>11.69608781628978</v>
+        <v>12.54322768634481</v>
       </c>
       <c r="L20">
-        <v>11.76490038790556</v>
+        <v>7.203843580314823</v>
       </c>
       <c r="M20">
-        <v>16.01715637019979</v>
+        <v>10.8948532811479</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.45554781003375</v>
+        <v>15.87771461569441</v>
       </c>
       <c r="C21">
-        <v>6.474182093289993</v>
+        <v>7.768139947014931</v>
       </c>
       <c r="D21">
-        <v>7.108648953156645</v>
+        <v>4.56780949456272</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.62597073716699</v>
+        <v>32.36975473035763</v>
       </c>
       <c r="G21">
-        <v>52.7631573876028</v>
+        <v>42.41286745481872</v>
       </c>
       <c r="H21">
-        <v>20.21393736109019</v>
+        <v>13.37939969722116</v>
       </c>
       <c r="I21">
-        <v>32.35324340200228</v>
+        <v>22.16358206523055</v>
       </c>
       <c r="J21">
-        <v>10.72936208270233</v>
+        <v>6.275655800984999</v>
       </c>
       <c r="K21">
-        <v>11.85089545989189</v>
+        <v>13.28556100425686</v>
       </c>
       <c r="L21">
-        <v>11.75869318113958</v>
+        <v>7.310825602404972</v>
       </c>
       <c r="M21">
-        <v>16.04742017847026</v>
+        <v>11.26153315919982</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.59653313973885</v>
+        <v>16.47088812598561</v>
       </c>
       <c r="C22">
-        <v>6.552300236166733</v>
+        <v>7.968862695083074</v>
       </c>
       <c r="D22">
-        <v>7.116042588434858</v>
+        <v>4.658664540482951</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.62090916738261</v>
+        <v>32.71368622194726</v>
       </c>
       <c r="G22">
-        <v>52.78645029037089</v>
+        <v>42.97275567988599</v>
       </c>
       <c r="H22">
-        <v>20.19131796441822</v>
+        <v>13.40785056449391</v>
       </c>
       <c r="I22">
-        <v>32.31593533549045</v>
+        <v>22.21197632645875</v>
       </c>
       <c r="J22">
-        <v>10.71756704807164</v>
+        <v>6.241585175242186</v>
       </c>
       <c r="K22">
-        <v>11.95283293170274</v>
+        <v>13.75219050797752</v>
       </c>
       <c r="L22">
-        <v>11.75580052094421</v>
+        <v>7.382749043203736</v>
       </c>
       <c r="M22">
-        <v>16.06909062294486</v>
+        <v>11.49946516573365</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.5212476888013</v>
+        <v>16.15652705490549</v>
       </c>
       <c r="C23">
-        <v>6.510794291468694</v>
+        <v>7.862222037041963</v>
       </c>
       <c r="D23">
-        <v>7.112037214223052</v>
+        <v>4.610266027299362</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.62298176273442</v>
+        <v>32.52829211375073</v>
       </c>
       <c r="G23">
-        <v>52.77312789366005</v>
+        <v>42.67128563946071</v>
       </c>
       <c r="H23">
-        <v>20.20316554697104</v>
+        <v>13.39190339788897</v>
       </c>
       <c r="I23">
-        <v>32.33545482335125</v>
+        <v>22.1847484384055</v>
       </c>
       <c r="J23">
-        <v>10.72381578165667</v>
+        <v>6.259695018371563</v>
       </c>
       <c r="K23">
-        <v>11.89836697715275</v>
+        <v>13.50482348642956</v>
       </c>
       <c r="L23">
-        <v>11.75723813803214</v>
+        <v>7.344180119426374</v>
       </c>
       <c r="M23">
-        <v>16.05735301977078</v>
+        <v>11.37265047852746</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.23721690069184</v>
+        <v>14.91665726529223</v>
       </c>
       <c r="C24">
-        <v>6.349546836265094</v>
+        <v>7.447597877893133</v>
       </c>
       <c r="D24">
-        <v>7.098177472441826</v>
+        <v>4.425049422265165</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.64465253622109</v>
+        <v>31.86592341963622</v>
       </c>
       <c r="G24">
-        <v>52.74225069071555</v>
+        <v>41.58711527955282</v>
       </c>
       <c r="H24">
-        <v>20.25297467223618</v>
+        <v>13.34785856485775</v>
       </c>
       <c r="I24">
-        <v>32.4180011642067</v>
+        <v>22.11159852588638</v>
       </c>
       <c r="J24">
-        <v>10.7485054240462</v>
+        <v>6.329934497764116</v>
       </c>
       <c r="K24">
-        <v>11.69357259267889</v>
+        <v>12.53077898366593</v>
       </c>
       <c r="L24">
-        <v>11.76502155205472</v>
+        <v>7.202129172474278</v>
       </c>
       <c r="M24">
-        <v>16.01669395273498</v>
+        <v>10.88883522067902</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.93477289272715</v>
+        <v>13.47308681387659</v>
       </c>
       <c r="C25">
-        <v>6.167375543599278</v>
+        <v>6.977576551470031</v>
       </c>
       <c r="D25">
-        <v>7.086076997330561</v>
+        <v>4.222002273399983</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.6975761876475</v>
+        <v>31.23350063057055</v>
       </c>
       <c r="G25">
-        <v>52.75083499678426</v>
+        <v>40.53706462999588</v>
       </c>
       <c r="H25">
-        <v>20.31724653162081</v>
+        <v>13.33282272880709</v>
       </c>
       <c r="I25">
-        <v>32.5254265389506</v>
+        <v>22.09198107856719</v>
       </c>
       <c r="J25">
-        <v>10.77733697667344</v>
+        <v>6.409345667875733</v>
       </c>
       <c r="K25">
-        <v>11.47691876126244</v>
+        <v>11.3993487965841</v>
       </c>
       <c r="L25">
-        <v>11.77844063064837</v>
+        <v>7.05765504919855</v>
       </c>
       <c r="M25">
-        <v>15.98108806079533</v>
+        <v>10.36156191697628</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.43663118244618</v>
+        <v>24.30527417711337</v>
       </c>
       <c r="C2">
-        <v>6.612298646294751</v>
+        <v>15.58985725253887</v>
       </c>
       <c r="D2">
-        <v>4.070633465310818</v>
+        <v>4.977775868088592</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.83510629989735</v>
+        <v>15.02689331740776</v>
       </c>
       <c r="G2">
-        <v>39.86231830805926</v>
+        <v>17.38839473882814</v>
       </c>
       <c r="H2">
-        <v>13.34728386123531</v>
+        <v>1.572600118019418</v>
       </c>
       <c r="I2">
-        <v>22.12389247336399</v>
+        <v>2.740662874554281</v>
       </c>
       <c r="J2">
-        <v>6.47107802961979</v>
+        <v>7.566481840713607</v>
       </c>
       <c r="K2">
-        <v>10.49557410912745</v>
+        <v>12.0451542740159</v>
       </c>
       <c r="L2">
-        <v>6.958931656364667</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.971119092455732</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.036189833905357</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.80362295118796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69211984511307</v>
+        <v>22.72119951732187</v>
       </c>
       <c r="C3">
-        <v>6.353159121334921</v>
+        <v>15.01189645324912</v>
       </c>
       <c r="D3">
-        <v>3.967438717812287</v>
+        <v>4.748316961674307</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.60523056802122</v>
+        <v>14.70569696965322</v>
       </c>
       <c r="G3">
-        <v>39.46393539061324</v>
+        <v>16.9923104348603</v>
       </c>
       <c r="H3">
-        <v>13.37185247512721</v>
+        <v>1.76190286769852</v>
       </c>
       <c r="I3">
-        <v>22.17218936181192</v>
+        <v>2.594148611787443</v>
       </c>
       <c r="J3">
-        <v>6.515009921127861</v>
+        <v>7.611619720759641</v>
       </c>
       <c r="K3">
-        <v>9.838522192521705</v>
+        <v>12.28529892368574</v>
       </c>
       <c r="L3">
-        <v>6.896854886678986</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.706571196863781</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.681172285408334</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.78386593618987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21493180078421</v>
+        <v>21.68900906024891</v>
       </c>
       <c r="C4">
-        <v>6.188525864627273</v>
+        <v>14.64752470935499</v>
       </c>
       <c r="D4">
-        <v>3.903981995617794</v>
+        <v>4.601579028150024</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.48320713554734</v>
+        <v>14.51598515927532</v>
       </c>
       <c r="G4">
-        <v>39.24743621838203</v>
+        <v>16.76093832670516</v>
       </c>
       <c r="H4">
-        <v>13.39385028862937</v>
+        <v>1.882309982854426</v>
       </c>
       <c r="I4">
-        <v>22.21427708826291</v>
+        <v>2.501782862538596</v>
       </c>
       <c r="J4">
-        <v>6.543036852516123</v>
+        <v>7.643070321168316</v>
       </c>
       <c r="K4">
-        <v>9.41303078681611</v>
+        <v>12.43768402970908</v>
       </c>
       <c r="L4">
-        <v>6.861135602609711</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.544703525653455</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.455493847086082</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.77997359042079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.01557356166625</v>
+        <v>21.25323949576952</v>
       </c>
       <c r="C5">
-        <v>6.120085480835038</v>
+        <v>14.50612696170189</v>
       </c>
       <c r="D5">
-        <v>3.878132310023171</v>
+        <v>4.542010597154466</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.43818496081788</v>
+        <v>14.43294727061882</v>
       </c>
       <c r="G5">
-        <v>39.16612745566437</v>
+        <v>16.65570787659711</v>
       </c>
       <c r="H5">
-        <v>13.40449898647041</v>
+        <v>1.932688914361496</v>
       </c>
       <c r="I5">
-        <v>22.2344500581464</v>
+        <v>2.484170758966957</v>
       </c>
       <c r="J5">
-        <v>6.554725389459339</v>
+        <v>7.654714306859761</v>
       </c>
       <c r="K5">
-        <v>9.234090411569735</v>
+        <v>12.49689685822262</v>
       </c>
       <c r="L5">
-        <v>6.847184000475235</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.478969614485193</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.361511958500245</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.77493207566088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98217921473805</v>
+        <v>21.17981067203519</v>
       </c>
       <c r="C6">
-        <v>6.108640633854201</v>
+        <v>14.49397285193884</v>
       </c>
       <c r="D6">
-        <v>3.873841560874272</v>
+        <v>4.53406569468419</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.43098993048239</v>
+        <v>14.40988068818589</v>
       </c>
       <c r="G6">
-        <v>39.15303920492811</v>
+        <v>16.62132674839871</v>
       </c>
       <c r="H6">
-        <v>13.40636737932319</v>
+        <v>1.941421838923495</v>
       </c>
       <c r="I6">
-        <v>22.23797926870071</v>
+        <v>2.495566726291778</v>
       </c>
       <c r="J6">
-        <v>6.556682485025308</v>
+        <v>7.654158763101425</v>
       </c>
       <c r="K6">
-        <v>9.204042455876946</v>
+        <v>12.50179563786287</v>
       </c>
       <c r="L6">
-        <v>6.844903879989607</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.468070933481794</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.345592726940714</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.76754760896639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21226281119696</v>
+        <v>21.68276265034604</v>
       </c>
       <c r="C7">
-        <v>6.187608269581771</v>
+        <v>14.67662257882786</v>
       </c>
       <c r="D7">
-        <v>3.903633294421694</v>
+        <v>4.606254582824461</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.4825810506968</v>
+        <v>14.48937963054514</v>
       </c>
       <c r="G7">
-        <v>39.24631186708454</v>
+        <v>16.71317348909978</v>
       </c>
       <c r="H7">
-        <v>13.39398715074741</v>
+        <v>1.883792742820214</v>
       </c>
       <c r="I7">
-        <v>22.21453704882358</v>
+        <v>2.504125426332596</v>
       </c>
       <c r="J7">
-        <v>6.543193402305272</v>
+        <v>7.636283238956771</v>
       </c>
       <c r="K7">
-        <v>9.410639999240617</v>
+        <v>12.4247855073231</v>
       </c>
       <c r="L7">
-        <v>6.860944997945976</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.543815973588151</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.453693545582357</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.76172245325063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18416086037906</v>
+        <v>23.77090724646632</v>
       </c>
       <c r="C8">
-        <v>6.524113268680718</v>
+        <v>15.43229929054047</v>
       </c>
       <c r="D8">
-        <v>4.035091037550212</v>
+        <v>4.906801160672572</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.7518156435574</v>
+        <v>14.88187423637684</v>
       </c>
       <c r="G8">
-        <v>39.71903471501747</v>
+        <v>17.18990964152983</v>
       </c>
       <c r="H8">
-        <v>13.35428764213531</v>
+        <v>1.637997491541645</v>
       </c>
       <c r="I8">
-        <v>22.1379010479246</v>
+        <v>2.693736671295212</v>
       </c>
       <c r="J8">
-        <v>6.486008908326111</v>
+        <v>7.572091700235643</v>
       </c>
       <c r="K8">
-        <v>10.27359675756523</v>
+        <v>12.10874075892897</v>
       </c>
       <c r="L8">
-        <v>6.937031583313937</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.879836087048442</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.914791460973772</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.7711907117394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.97306186926718</v>
+        <v>27.39569260349376</v>
       </c>
       <c r="C9">
-        <v>7.138924669579666</v>
+        <v>16.78101415277172</v>
       </c>
       <c r="D9">
-        <v>4.290756937799854</v>
+        <v>5.439188247962355</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.4358557363728</v>
+        <v>15.75175222890863</v>
       </c>
       <c r="G9">
-        <v>40.87518698476963</v>
+        <v>18.29521032026607</v>
       </c>
       <c r="H9">
-        <v>13.33376406351214</v>
+        <v>1.924931566914572</v>
       </c>
       <c r="I9">
-        <v>22.09108358788521</v>
+        <v>3.043388954106232</v>
       </c>
       <c r="J9">
-        <v>6.382097344861767</v>
+        <v>7.48973177538865</v>
       </c>
       <c r="K9">
-        <v>11.79138335986262</v>
+        <v>11.55385601048786</v>
       </c>
       <c r="L9">
-        <v>7.105141007746732</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.5396954647059</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.755481066581467</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.89064474438742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.26153380914468</v>
+        <v>29.77265067415697</v>
       </c>
       <c r="C10">
-        <v>7.561937736630135</v>
+        <v>17.86584781845125</v>
       </c>
       <c r="D10">
-        <v>4.475617595063359</v>
+        <v>5.824576012325591</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.03910205030163</v>
+        <v>16.30099906130472</v>
       </c>
       <c r="G10">
-        <v>41.87180226670001</v>
+        <v>18.94204519873099</v>
       </c>
       <c r="H10">
-        <v>13.35714261115755</v>
+        <v>2.21841706496346</v>
       </c>
       <c r="I10">
-        <v>22.12656533069428</v>
+        <v>3.28651968942405</v>
       </c>
       <c r="J10">
-        <v>6.310588931930733</v>
+        <v>7.414247501969228</v>
       </c>
       <c r="K10">
-        <v>12.80144686659755</v>
+        <v>11.10014399349382</v>
       </c>
       <c r="L10">
-        <v>7.240002645567639</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.02068042930015</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.14884943101799</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.93220056241628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.81790591314412</v>
+        <v>30.7770062844656</v>
       </c>
       <c r="C11">
-        <v>7.748020408340257</v>
+        <v>19.58544183060058</v>
       </c>
       <c r="D11">
-        <v>4.558760923635563</v>
+        <v>6.196162688352006</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.33646950721222</v>
+        <v>15.58599928157508</v>
       </c>
       <c r="G11">
-        <v>42.35853425733944</v>
+        <v>17.50161610043339</v>
       </c>
       <c r="H11">
-        <v>13.3769165169022</v>
+        <v>3.024712479027196</v>
       </c>
       <c r="I11">
-        <v>22.15940322465811</v>
+        <v>3.364966704227317</v>
       </c>
       <c r="J11">
-        <v>6.279067133493397</v>
+        <v>7.090970729275818</v>
       </c>
       <c r="K11">
-        <v>13.23854302994116</v>
+        <v>10.36428682273089</v>
       </c>
       <c r="L11">
-        <v>7.303776033578158</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.23786708265866</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.809289759501983</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.20992955191077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.02437278727565</v>
+        <v>31.14425301243609</v>
       </c>
       <c r="C12">
-        <v>7.817568860662677</v>
+        <v>20.82082429814987</v>
       </c>
       <c r="D12">
-        <v>4.590086158482483</v>
+        <v>6.427918542831705</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.45245552914688</v>
+        <v>14.88427580513228</v>
       </c>
       <c r="G12">
-        <v>42.54774567987116</v>
+        <v>16.18383077367596</v>
       </c>
       <c r="H12">
-        <v>13.38578575644686</v>
+        <v>4.243847942782517</v>
       </c>
       <c r="I12">
-        <v>22.17436863392113</v>
+        <v>3.381728375008342</v>
       </c>
       <c r="J12">
-        <v>6.267272164704388</v>
+        <v>6.842644962061717</v>
       </c>
       <c r="K12">
-        <v>13.40087960008679</v>
+        <v>9.938580979974983</v>
       </c>
       <c r="L12">
-        <v>7.328269845328108</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.31982050991038</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.674378506206446</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.60923015252851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.98009310956481</v>
+        <v>31.05571168139594</v>
       </c>
       <c r="C13">
-        <v>7.802631149223997</v>
+        <v>21.81758883463458</v>
       </c>
       <c r="D13">
-        <v>4.58334712669066</v>
+        <v>6.578405916547823</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.42732432014971</v>
+        <v>14.09738438405946</v>
       </c>
       <c r="G13">
-        <v>42.50677631098866</v>
+        <v>14.78257127413022</v>
       </c>
       <c r="H13">
-        <v>13.3838130826061</v>
+        <v>5.547715191795213</v>
       </c>
       <c r="I13">
-        <v>22.17103092632914</v>
+        <v>3.355487203131293</v>
       </c>
       <c r="J13">
-        <v>6.269806175497525</v>
+        <v>6.626933472647047</v>
       </c>
       <c r="K13">
-        <v>13.36605840908782</v>
+        <v>9.717808867742828</v>
       </c>
       <c r="L13">
-        <v>7.322979423177648</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.30218413509199</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.652108607832155</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.03557582574138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83497626999474</v>
+        <v>30.78633192228659</v>
       </c>
       <c r="C14">
-        <v>7.753760583979999</v>
+        <v>22.42858730416986</v>
       </c>
       <c r="D14">
-        <v>4.561341382904562</v>
+        <v>6.650287092657849</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.34594357081478</v>
+        <v>13.49563296977673</v>
       </c>
       <c r="G14">
-        <v>42.37400211033419</v>
+        <v>13.74158840158663</v>
       </c>
       <c r="H14">
-        <v>13.37761811954088</v>
+        <v>6.488455526368217</v>
       </c>
       <c r="I14">
-        <v>22.16058297089428</v>
+        <v>3.318942164846507</v>
       </c>
       <c r="J14">
-        <v>6.278093934506107</v>
+        <v>6.491065230437491</v>
       </c>
       <c r="K14">
-        <v>13.25196210632764</v>
+        <v>9.672073515982477</v>
       </c>
       <c r="L14">
-        <v>7.305784280013553</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.24461556726502</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.039324333851582</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.645002379383145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.74554039360264</v>
+        <v>30.62176256228684</v>
       </c>
       <c r="C15">
-        <v>7.723706499655797</v>
+        <v>22.5350579603</v>
       </c>
       <c r="D15">
-        <v>4.547840853502144</v>
+        <v>6.652149505902544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.29653793353956</v>
+        <v>13.3234117743097</v>
       </c>
       <c r="G15">
-        <v>42.29331461012816</v>
+        <v>13.45662925962757</v>
       </c>
       <c r="H15">
-        <v>13.37400543840282</v>
+        <v>6.702920667155725</v>
       </c>
       <c r="I15">
-        <v>22.15451673155292</v>
+        <v>3.301437495377308</v>
       </c>
       <c r="J15">
-        <v>6.283188774651208</v>
+        <v>6.463384964616903</v>
       </c>
       <c r="K15">
-        <v>13.18166157817066</v>
+        <v>9.692679406383863</v>
       </c>
       <c r="L15">
-        <v>7.295296458460069</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.20931373743041</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.906635044877696</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.551785805413054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.22457982448289</v>
+        <v>29.66658466029506</v>
       </c>
       <c r="C16">
-        <v>7.54964857337425</v>
+        <v>21.95293465472442</v>
       </c>
       <c r="D16">
-        <v>4.470162856193315</v>
+        <v>6.475481908958311</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.02013701469718</v>
+        <v>13.19158108057419</v>
       </c>
       <c r="G16">
-        <v>41.84067313414695</v>
+        <v>13.35863971548167</v>
       </c>
       <c r="H16">
-        <v>13.35603992939635</v>
+        <v>6.438015942442423</v>
       </c>
       <c r="I16">
-        <v>22.12476626569156</v>
+        <v>3.204028370673864</v>
       </c>
       <c r="J16">
-        <v>6.312668958046965</v>
+        <v>6.536610814827711</v>
       </c>
       <c r="K16">
-        <v>12.77243417444809</v>
+        <v>9.931621957687129</v>
       </c>
       <c r="L16">
-        <v>7.235883307142367</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.00644911904846</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.902058531327799</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.634168823532814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.89740712541647</v>
+        <v>29.06717976903309</v>
       </c>
       <c r="C17">
-        <v>7.441239040082415</v>
+        <v>21.15810375115583</v>
       </c>
       <c r="D17">
-        <v>4.422249465176328</v>
+        <v>6.297303397875213</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.85650894979094</v>
+        <v>13.42176263656845</v>
       </c>
       <c r="G17">
-        <v>41.57160991635473</v>
+        <v>13.85695059076963</v>
       </c>
       <c r="H17">
-        <v>13.34740648042242</v>
+        <v>5.687193085953679</v>
       </c>
       <c r="I17">
-        <v>22.11088279914551</v>
+        <v>3.148796470942525</v>
       </c>
       <c r="J17">
-        <v>6.331009921046459</v>
+        <v>6.663892581509817</v>
       </c>
       <c r="K17">
-        <v>12.51567739951126</v>
+        <v>10.13000712554425</v>
       </c>
       <c r="L17">
-        <v>7.200052991891935</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.88154069197021</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.203397532109534</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.904222243688279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.7064210943276</v>
+        <v>28.72115563148305</v>
       </c>
       <c r="C18">
-        <v>7.378287121100111</v>
+        <v>20.08316408444949</v>
       </c>
       <c r="D18">
-        <v>4.394602648825292</v>
+        <v>6.096389168672059</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.7645498281283</v>
+        <v>14.00081842050202</v>
       </c>
       <c r="G18">
-        <v>41.41998703014274</v>
+        <v>14.94617040294485</v>
       </c>
       <c r="H18">
-        <v>13.34329680786124</v>
+        <v>4.467915855417727</v>
       </c>
       <c r="I18">
-        <v>22.10446105379282</v>
+        <v>3.122847182125081</v>
       </c>
       <c r="J18">
-        <v>6.341654213094423</v>
+        <v>6.857831126242157</v>
       </c>
       <c r="K18">
-        <v>12.36588802664262</v>
+        <v>10.3687501930944</v>
       </c>
       <c r="L18">
-        <v>7.179672776097979</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.80954758877528</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.922417162470818</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.37892698660724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.64127296056003</v>
+        <v>28.61045816569693</v>
       </c>
       <c r="C19">
-        <v>7.356870258777964</v>
+        <v>18.95951020460173</v>
       </c>
       <c r="D19">
-        <v>4.385227479746698</v>
+        <v>5.905703333521541</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.73378177513686</v>
+        <v>14.7657880691891</v>
       </c>
       <c r="G19">
-        <v>41.36918551270007</v>
+        <v>16.3403076015147</v>
       </c>
       <c r="H19">
-        <v>13.3420503601256</v>
+        <v>3.105174733080288</v>
       </c>
       <c r="I19">
-        <v>22.10255143530127</v>
+        <v>3.133983280321188</v>
       </c>
       <c r="J19">
-        <v>6.345274610617079</v>
+        <v>7.083221814001547</v>
       </c>
       <c r="K19">
-        <v>12.31480853335443</v>
+        <v>10.67900357882469</v>
       </c>
       <c r="L19">
-        <v>7.172811754588797</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.78514824920687</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.039823891555939</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.95805508437529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.9325250910411</v>
+        <v>29.16640280364583</v>
       </c>
       <c r="C20">
-        <v>7.452841319440033</v>
+        <v>17.67755621295483</v>
       </c>
       <c r="D20">
-        <v>4.427359238789626</v>
+        <v>5.741148992175712</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.87370377513972</v>
+        <v>16.07907000704535</v>
       </c>
       <c r="G20">
-        <v>41.5999269504007</v>
+        <v>18.63201528222541</v>
       </c>
       <c r="H20">
-        <v>13.34823644722861</v>
+        <v>2.138705842475165</v>
       </c>
       <c r="I20">
-        <v>22.11219795916999</v>
+        <v>3.232414502287163</v>
       </c>
       <c r="J20">
-        <v>6.329047679588043</v>
+        <v>7.409816582870234</v>
       </c>
       <c r="K20">
-        <v>12.54322768634481</v>
+        <v>11.17197224681978</v>
       </c>
       <c r="L20">
-        <v>7.203843580314823</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.8948532811479</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.03807362832669</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.85985085350873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87771461569441</v>
+        <v>30.90486525586462</v>
       </c>
       <c r="C21">
-        <v>7.768139947014931</v>
+        <v>18.26108470121487</v>
       </c>
       <c r="D21">
-        <v>4.56780949456272</v>
+        <v>5.988056258213398</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.36975473035763</v>
+        <v>16.69421516102212</v>
       </c>
       <c r="G21">
-        <v>42.41286745481872</v>
+        <v>19.47804041943244</v>
       </c>
       <c r="H21">
-        <v>13.37939969722116</v>
+        <v>2.377444294876272</v>
       </c>
       <c r="I21">
-        <v>22.16358206523055</v>
+        <v>3.420674860101502</v>
       </c>
       <c r="J21">
-        <v>6.275655800984999</v>
+        <v>7.414469302749007</v>
       </c>
       <c r="K21">
-        <v>13.28556100425686</v>
+        <v>10.94247464434465</v>
       </c>
       <c r="L21">
-        <v>7.310825602404972</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.26153315919982</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.60795574344949</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.04945394986891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.47088812598561</v>
+        <v>31.98971734398033</v>
       </c>
       <c r="C22">
-        <v>7.968862695083074</v>
+        <v>18.66737239642593</v>
       </c>
       <c r="D22">
-        <v>4.658664540482951</v>
+        <v>6.149651999994956</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.71368622194726</v>
+        <v>17.07215802456326</v>
       </c>
       <c r="G22">
-        <v>42.97275567988599</v>
+        <v>19.98731365432537</v>
       </c>
       <c r="H22">
-        <v>13.40785056449391</v>
+        <v>2.524494044534689</v>
       </c>
       <c r="I22">
-        <v>22.21197632645875</v>
+        <v>3.536145388570542</v>
       </c>
       <c r="J22">
-        <v>6.241585175242186</v>
+        <v>7.414217372037811</v>
       </c>
       <c r="K22">
-        <v>13.75219050797752</v>
+        <v>10.78362838379057</v>
       </c>
       <c r="L22">
-        <v>7.382749043203736</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.49946516573365</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.87879664886865</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.16217391841152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.15652705490549</v>
+        <v>31.41568667052155</v>
       </c>
       <c r="C23">
-        <v>7.862222037041963</v>
+        <v>18.42034629414147</v>
       </c>
       <c r="D23">
-        <v>4.610266027299362</v>
+        <v>6.058722622975107</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.52829211375073</v>
+        <v>16.89574274389729</v>
       </c>
       <c r="G23">
-        <v>42.67128563946071</v>
+        <v>19.76086276032512</v>
       </c>
       <c r="H23">
-        <v>13.39190339788897</v>
+        <v>2.44694230491345</v>
       </c>
       <c r="I23">
-        <v>22.1847484384055</v>
+        <v>3.471177310284908</v>
       </c>
       <c r="J23">
-        <v>6.259695018371563</v>
+        <v>7.421979842099695</v>
       </c>
       <c r="K23">
-        <v>13.50482348642956</v>
+        <v>10.8845335494616</v>
       </c>
       <c r="L23">
-        <v>7.344180119426374</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.37265047852746</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.73542244014913</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.12138095008651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.91665726529223</v>
+        <v>29.13933728173535</v>
       </c>
       <c r="C24">
-        <v>7.447597877893133</v>
+        <v>17.51019577988734</v>
       </c>
       <c r="D24">
-        <v>4.425049422265165</v>
+        <v>5.710522902407231</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.86592341963622</v>
+        <v>16.19664902825184</v>
       </c>
       <c r="G24">
-        <v>41.58711527955282</v>
+        <v>18.84841630196194</v>
       </c>
       <c r="H24">
-        <v>13.34785856485775</v>
+        <v>2.146111298714703</v>
       </c>
       <c r="I24">
-        <v>22.11159852588638</v>
+        <v>3.226772806059548</v>
       </c>
       <c r="J24">
-        <v>6.329934497764116</v>
+        <v>7.448098866733383</v>
       </c>
       <c r="K24">
-        <v>12.53077898366593</v>
+        <v>11.25213205840181</v>
       </c>
       <c r="L24">
-        <v>7.202129172474278</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.88883522067902</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.17465945164662</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.95495755874033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.47308681387659</v>
+        <v>26.46456379289107</v>
       </c>
       <c r="C25">
-        <v>6.977576551470031</v>
+        <v>16.47705497844132</v>
       </c>
       <c r="D25">
-        <v>4.222002273399983</v>
+        <v>5.309294581709608</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.23350063057055</v>
+        <v>15.46812871945393</v>
       </c>
       <c r="G25">
-        <v>40.53706462999588</v>
+        <v>17.90960834615639</v>
       </c>
       <c r="H25">
-        <v>13.33282272880709</v>
+        <v>1.808044544510524</v>
       </c>
       <c r="I25">
-        <v>22.09198107856719</v>
+        <v>2.95558302977595</v>
       </c>
       <c r="J25">
-        <v>6.409345667875733</v>
+        <v>7.496003624639802</v>
       </c>
       <c r="K25">
-        <v>11.3993487965841</v>
+        <v>11.67450843060944</v>
       </c>
       <c r="L25">
-        <v>7.05765504919855</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.36156191697628</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.534613520022184</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.81840435577925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30527417711337</v>
+        <v>24.31985732878807</v>
       </c>
       <c r="C2">
-        <v>15.58985725253887</v>
+        <v>15.60544251776551</v>
       </c>
       <c r="D2">
-        <v>4.977775868088592</v>
+        <v>5.019366878001662</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.02689331740776</v>
+        <v>14.84049974404167</v>
       </c>
       <c r="G2">
-        <v>17.38839473882814</v>
+        <v>16.31105997264422</v>
       </c>
       <c r="H2">
-        <v>1.572600118019418</v>
+        <v>1.57576664495252</v>
       </c>
       <c r="I2">
-        <v>2.740662874554281</v>
+        <v>2.774572715501235</v>
       </c>
       <c r="J2">
-        <v>7.566481840713607</v>
+        <v>8.15846025438991</v>
       </c>
       <c r="K2">
-        <v>12.0451542740159</v>
+        <v>11.8489078875549</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.59300523279236</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.905384010956263</v>
       </c>
       <c r="N2">
-        <v>9.036189833905357</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9.05384929707194</v>
       </c>
       <c r="Q2">
-        <v>11.80362295118796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.669676037082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.72119951732187</v>
+        <v>22.74244574139334</v>
       </c>
       <c r="C3">
-        <v>15.01189645324912</v>
+        <v>14.93381402128402</v>
       </c>
       <c r="D3">
-        <v>4.748316961674307</v>
+        <v>4.774091955531774</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.70569696965322</v>
+        <v>14.55900370368246</v>
       </c>
       <c r="G3">
-        <v>16.9923104348603</v>
+        <v>15.96310057645301</v>
       </c>
       <c r="H3">
-        <v>1.76190286769852</v>
+        <v>1.722046445074668</v>
       </c>
       <c r="I3">
-        <v>2.594148611787443</v>
+        <v>2.642564933439077</v>
       </c>
       <c r="J3">
-        <v>7.611619720759641</v>
+        <v>8.181953848937809</v>
       </c>
       <c r="K3">
-        <v>12.28529892368574</v>
+        <v>12.09215000636322</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.79980387628554</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.102329547600029</v>
       </c>
       <c r="N3">
-        <v>8.681172285408334</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.707376643684743</v>
       </c>
       <c r="Q3">
-        <v>11.78386593618987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.67320494418163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.68900906024891</v>
+        <v>21.71461318915503</v>
       </c>
       <c r="C4">
-        <v>14.64752470935499</v>
+        <v>14.50997869680363</v>
       </c>
       <c r="D4">
-        <v>4.601579028150024</v>
+        <v>4.617177056182016</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.51598515927532</v>
+        <v>14.39233372098338</v>
       </c>
       <c r="G4">
-        <v>16.76093832670516</v>
+        <v>15.76250503039389</v>
       </c>
       <c r="H4">
-        <v>1.882309982854426</v>
+        <v>1.834709881696901</v>
       </c>
       <c r="I4">
-        <v>2.501782862538596</v>
+        <v>2.559489988896802</v>
       </c>
       <c r="J4">
-        <v>7.643070321168316</v>
+        <v>8.1980453361404</v>
       </c>
       <c r="K4">
-        <v>12.43768402970908</v>
+        <v>12.24531523308079</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.9325686451655</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.242374907924836</v>
       </c>
       <c r="N4">
-        <v>8.455493847086082</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.48737722442595</v>
       </c>
       <c r="Q4">
-        <v>11.77997359042079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.68209092528542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.25323949576952</v>
+        <v>21.28069597442656</v>
       </c>
       <c r="C5">
-        <v>14.50612696170189</v>
+        <v>14.34404621626132</v>
       </c>
       <c r="D5">
-        <v>4.542010597154466</v>
+        <v>4.553321402802274</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.43294727061882</v>
+        <v>14.31851702421201</v>
       </c>
       <c r="G5">
-        <v>16.65570787659711</v>
+        <v>15.66994457907666</v>
       </c>
       <c r="H5">
-        <v>1.932688914361496</v>
+        <v>1.881873158725227</v>
       </c>
       <c r="I5">
-        <v>2.484170758966957</v>
+        <v>2.526185257127157</v>
       </c>
       <c r="J5">
-        <v>7.654714306859761</v>
+        <v>8.203043220384734</v>
       </c>
       <c r="K5">
-        <v>12.49689685822262</v>
+        <v>12.30477598822956</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.98398687303162</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.302542244870091</v>
       </c>
       <c r="N5">
-        <v>8.361511958500245</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.395821036262632</v>
       </c>
       <c r="Q5">
-        <v>11.77493207566088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.68203701005415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.17981067203519</v>
+        <v>21.20757725745973</v>
       </c>
       <c r="C6">
-        <v>14.49397285193884</v>
+        <v>14.32794988083642</v>
       </c>
       <c r="D6">
-        <v>4.53406569468419</v>
+        <v>4.544621955920056</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.40988068818589</v>
+        <v>14.29720340454085</v>
       </c>
       <c r="G6">
-        <v>16.62132674839871</v>
+        <v>15.63754774782229</v>
       </c>
       <c r="H6">
-        <v>1.941421838923495</v>
+        <v>1.890066984659843</v>
       </c>
       <c r="I6">
-        <v>2.495566726291778</v>
+        <v>2.52218698800452</v>
       </c>
       <c r="J6">
-        <v>7.654158763101425</v>
+        <v>8.201492313732231</v>
       </c>
       <c r="K6">
-        <v>12.50179563786287</v>
+        <v>12.3099411382161</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.9875781685232</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.310970052117141</v>
       </c>
       <c r="N6">
-        <v>8.345592726940714</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.380311754700232</v>
       </c>
       <c r="Q6">
-        <v>11.76754760896639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.67565422382471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.68276265034604</v>
+        <v>21.70819129596304</v>
       </c>
       <c r="C7">
-        <v>14.67662257882786</v>
+        <v>14.5341470422608</v>
       </c>
       <c r="D7">
-        <v>4.606254582824461</v>
+        <v>4.625099627238127</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.48937963054514</v>
+        <v>14.35193999493778</v>
       </c>
       <c r="G7">
-        <v>16.71317348909978</v>
+        <v>15.80451496266826</v>
       </c>
       <c r="H7">
-        <v>1.883792742820214</v>
+        <v>1.836503118232061</v>
       </c>
       <c r="I7">
-        <v>2.504125426332596</v>
+        <v>2.56240793510241</v>
       </c>
       <c r="J7">
-        <v>7.636283238956771</v>
+        <v>8.157300439771499</v>
       </c>
       <c r="K7">
-        <v>12.4247855073231</v>
+        <v>12.22894218461486</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.91557447835645</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.235864933686617</v>
       </c>
       <c r="N7">
-        <v>8.453693545582357</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.485370335521592</v>
       </c>
       <c r="Q7">
-        <v>11.76172245325063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.65431863589167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.77090724646632</v>
+        <v>23.78715071913145</v>
       </c>
       <c r="C8">
-        <v>15.43229929054047</v>
+        <v>15.40074266575233</v>
       </c>
       <c r="D8">
-        <v>4.906801160672572</v>
+        <v>4.953671645918065</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.88187423637684</v>
+        <v>14.66312437092908</v>
       </c>
       <c r="G8">
-        <v>17.18990964152983</v>
+        <v>16.42053003732983</v>
       </c>
       <c r="H8">
-        <v>1.637997491541645</v>
+        <v>1.607301218242716</v>
       </c>
       <c r="I8">
-        <v>2.693736671295212</v>
+        <v>2.732429148900472</v>
       </c>
       <c r="J8">
-        <v>7.572091700235643</v>
+        <v>8.04579829736211</v>
       </c>
       <c r="K8">
-        <v>12.10874075892897</v>
+        <v>11.90137502639886</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.63500547043945</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.951269405464876</v>
       </c>
       <c r="N8">
-        <v>8.914791460973772</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.934601260910965</v>
       </c>
       <c r="Q8">
-        <v>11.7711907117394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.61293718788554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.39569260349376</v>
+        <v>27.39630603648901</v>
       </c>
       <c r="C9">
-        <v>16.78101415277172</v>
+        <v>16.96709443175237</v>
       </c>
       <c r="D9">
-        <v>5.439188247962355</v>
+        <v>5.524669429530557</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.75175222890863</v>
+        <v>15.41716826547068</v>
       </c>
       <c r="G9">
-        <v>18.29521032026607</v>
+        <v>17.47511083513878</v>
       </c>
       <c r="H9">
-        <v>1.924931566914572</v>
+        <v>1.926071799304523</v>
       </c>
       <c r="I9">
-        <v>3.043388954106232</v>
+        <v>3.046698794187615</v>
       </c>
       <c r="J9">
-        <v>7.48973177538865</v>
+        <v>7.973418870253633</v>
       </c>
       <c r="K9">
-        <v>11.55385601048786</v>
+        <v>11.32725225099878</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.16708731114718</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.574868582638999</v>
       </c>
       <c r="N9">
-        <v>9.755481066581467</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.756191175129599</v>
       </c>
       <c r="Q9">
-        <v>11.89064474438742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.65649242889523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77265067415697</v>
+        <v>29.76169370209901</v>
       </c>
       <c r="C10">
-        <v>17.86584781845125</v>
+        <v>18.1637552547715</v>
       </c>
       <c r="D10">
-        <v>5.824576012325591</v>
+        <v>5.949804886525645</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.30099906130472</v>
+        <v>15.81560889524502</v>
       </c>
       <c r="G10">
-        <v>18.94204519873099</v>
+        <v>18.57608203809257</v>
       </c>
       <c r="H10">
-        <v>2.21841706496346</v>
+        <v>2.198214538854697</v>
       </c>
       <c r="I10">
-        <v>3.28651968942405</v>
+        <v>3.264641149831247</v>
       </c>
       <c r="J10">
-        <v>7.414247501969228</v>
+        <v>7.714039152385488</v>
       </c>
       <c r="K10">
-        <v>11.10014399349382</v>
+        <v>10.84337282942941</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.801773739011686</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.329847246957121</v>
       </c>
       <c r="N10">
-        <v>10.14884943101799</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.13653763287557</v>
       </c>
       <c r="Q10">
-        <v>11.93220056241628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.58940931588801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.7770062844656</v>
+        <v>30.76114157947734</v>
       </c>
       <c r="C11">
-        <v>19.58544183060058</v>
+        <v>19.78145972016229</v>
       </c>
       <c r="D11">
-        <v>6.196162688352006</v>
+        <v>6.346448433910773</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15.58599928157508</v>
+        <v>15.01668303905253</v>
       </c>
       <c r="G11">
-        <v>17.50161610043339</v>
+        <v>18.30965052914008</v>
       </c>
       <c r="H11">
-        <v>3.024712479027196</v>
+        <v>3.00351061001932</v>
       </c>
       <c r="I11">
-        <v>3.364966704227317</v>
+        <v>3.33409875628911</v>
       </c>
       <c r="J11">
-        <v>7.090970729275818</v>
+        <v>7.123000663380874</v>
       </c>
       <c r="K11">
-        <v>10.36428682273089</v>
+        <v>10.18844683334331</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.405545882084096</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.758660310537622</v>
       </c>
       <c r="N11">
-        <v>8.809289759501983</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.789901037936312</v>
       </c>
       <c r="Q11">
-        <v>11.20992955191077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.82021680216675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.14425301243609</v>
+        <v>31.12688333799227</v>
       </c>
       <c r="C12">
-        <v>20.82082429814987</v>
+        <v>20.90891699602355</v>
       </c>
       <c r="D12">
-        <v>6.427918542831705</v>
+        <v>6.58090461137765</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14.88427580513228</v>
+        <v>14.32322387036175</v>
       </c>
       <c r="G12">
-        <v>16.18383077367596</v>
+        <v>17.6080013212313</v>
       </c>
       <c r="H12">
-        <v>4.243847942782517</v>
+        <v>4.227624055541948</v>
       </c>
       <c r="I12">
-        <v>3.381728375008342</v>
+        <v>3.347329375731065</v>
       </c>
       <c r="J12">
-        <v>6.842644962061717</v>
+        <v>6.837082017022436</v>
       </c>
       <c r="K12">
-        <v>9.938580979974983</v>
+        <v>9.849599210758283</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.235788787467165</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.399332743649706</v>
       </c>
       <c r="N12">
-        <v>7.674378506206446</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.651197991370213</v>
       </c>
       <c r="Q12">
-        <v>10.60923015252851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.24129613352367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.05571168139594</v>
+        <v>31.03961848084811</v>
       </c>
       <c r="C13">
-        <v>21.81758883463458</v>
+        <v>21.80015023635359</v>
       </c>
       <c r="D13">
-        <v>6.578405916547823</v>
+        <v>6.708884980598802</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14.09738438405946</v>
+        <v>13.65163869446104</v>
       </c>
       <c r="G13">
-        <v>14.78257127413022</v>
+        <v>16.22492520600125</v>
       </c>
       <c r="H13">
-        <v>5.547715191795213</v>
+        <v>5.536530262141329</v>
       </c>
       <c r="I13">
-        <v>3.355487203131293</v>
+        <v>3.323652370649523</v>
       </c>
       <c r="J13">
-        <v>6.626933472647047</v>
+        <v>6.752874357924658</v>
       </c>
       <c r="K13">
-        <v>9.717808867742828</v>
+        <v>9.710855511064059</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.181937573624078</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.198805405676798</v>
       </c>
       <c r="N13">
-        <v>6.652108607832155</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.628451719217995</v>
       </c>
       <c r="Q13">
-        <v>10.03557582574138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.766492251809566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.78633192228659</v>
+        <v>30.77233721276348</v>
       </c>
       <c r="C14">
-        <v>22.42858730416986</v>
+        <v>22.33708404933296</v>
       </c>
       <c r="D14">
-        <v>6.650287092657849</v>
+        <v>6.753283294283158</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>13.49563296977673</v>
+        <v>13.17806278088391</v>
       </c>
       <c r="G14">
-        <v>13.74158840158663</v>
+        <v>14.92989562150764</v>
       </c>
       <c r="H14">
-        <v>6.488455526368217</v>
+        <v>6.480324151264155</v>
       </c>
       <c r="I14">
-        <v>3.318942164846507</v>
+        <v>3.291902911644354</v>
       </c>
       <c r="J14">
-        <v>6.491065230437491</v>
+        <v>6.764139837307245</v>
       </c>
       <c r="K14">
-        <v>9.672073515982477</v>
+        <v>9.705654495450586</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.18717977929907</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.150127757769864</v>
       </c>
       <c r="N14">
-        <v>6.039324333851582</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.017342398589594</v>
       </c>
       <c r="Q14">
-        <v>9.645002379383145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.475645109246834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.62176256228684</v>
+        <v>30.60889123269549</v>
       </c>
       <c r="C15">
-        <v>22.5350579603</v>
+        <v>22.4265376989187</v>
       </c>
       <c r="D15">
-        <v>6.652149505902544</v>
+        <v>6.74346332629286</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13.3234117743097</v>
+        <v>13.05717018532429</v>
       </c>
       <c r="G15">
-        <v>13.45662925962757</v>
+        <v>14.46892336815526</v>
       </c>
       <c r="H15">
-        <v>6.702920667155725</v>
+        <v>6.695754421809781</v>
       </c>
       <c r="I15">
-        <v>3.301437495377308</v>
+        <v>3.277397005769049</v>
       </c>
       <c r="J15">
-        <v>6.463384964616903</v>
+        <v>6.796757687612214</v>
       </c>
       <c r="K15">
-        <v>9.692679406383863</v>
+        <v>9.731789687746737</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.198376460897684</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.166815870219244</v>
       </c>
       <c r="N15">
-        <v>5.906635044877696</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.886101327983345</v>
       </c>
       <c r="Q15">
-        <v>9.551785805413054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.41948623128471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.66658466029506</v>
+        <v>29.65956235732989</v>
       </c>
       <c r="C16">
-        <v>21.95293465472442</v>
+        <v>21.85727419545873</v>
       </c>
       <c r="D16">
-        <v>6.475481908958311</v>
+        <v>6.526286621496916</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13.19158108057419</v>
+        <v>13.08689646454708</v>
       </c>
       <c r="G16">
-        <v>13.35863971548167</v>
+        <v>13.43637658316711</v>
       </c>
       <c r="H16">
-        <v>6.438015942442423</v>
+        <v>6.43416900574712</v>
       </c>
       <c r="I16">
-        <v>3.204028370673864</v>
+        <v>3.19360342076035</v>
       </c>
       <c r="J16">
-        <v>6.536610814827711</v>
+        <v>7.096066203142993</v>
       </c>
       <c r="K16">
-        <v>9.931621957687129</v>
+        <v>9.952030433526543</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.277642125038406</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.385532952686403</v>
       </c>
       <c r="N16">
-        <v>5.902058531327799</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.890780799812789</v>
       </c>
       <c r="Q16">
-        <v>9.634168823532814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.605387898194181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.06717976903309</v>
+        <v>29.06335703826753</v>
       </c>
       <c r="C17">
-        <v>21.15810375115583</v>
+        <v>21.10618512284889</v>
       </c>
       <c r="D17">
-        <v>6.297303397875213</v>
+        <v>6.337001463203254</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>13.42176263656845</v>
+        <v>13.35183969703932</v>
       </c>
       <c r="G17">
-        <v>13.85695059076963</v>
+        <v>13.48737699480366</v>
       </c>
       <c r="H17">
-        <v>5.687193085953679</v>
+        <v>5.684899156628593</v>
       </c>
       <c r="I17">
-        <v>3.148796470942525</v>
+        <v>3.145955868900879</v>
       </c>
       <c r="J17">
-        <v>6.663892581509817</v>
+        <v>7.312066801907227</v>
       </c>
       <c r="K17">
-        <v>10.13000712554425</v>
+        <v>10.12871694306912</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.35708976942205</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.560234029374151</v>
       </c>
       <c r="N17">
-        <v>6.203397532109534</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.197435822089497</v>
       </c>
       <c r="Q17">
-        <v>9.904222243688279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.891690950141776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.72115563148305</v>
+        <v>28.71873521080035</v>
       </c>
       <c r="C18">
-        <v>20.08316408444949</v>
+        <v>20.11262983160973</v>
       </c>
       <c r="D18">
-        <v>6.096389168672059</v>
+        <v>6.142620333275488</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>14.00081842050202</v>
+        <v>13.8899054996953</v>
       </c>
       <c r="G18">
-        <v>14.94617040294485</v>
+        <v>14.3138086502539</v>
       </c>
       <c r="H18">
-        <v>4.467915855417727</v>
+        <v>4.466073938613983</v>
       </c>
       <c r="I18">
-        <v>3.122847182125081</v>
+        <v>3.122297347428947</v>
       </c>
       <c r="J18">
-        <v>6.857831126242157</v>
+        <v>7.519760210112867</v>
       </c>
       <c r="K18">
-        <v>10.3687501930944</v>
+        <v>10.33225585889086</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.476345487658143</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.750571957521507</v>
       </c>
       <c r="N18">
-        <v>6.922417162470818</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.918908173680767</v>
       </c>
       <c r="Q18">
-        <v>10.37892698660724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.33024474078839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.61045816569693</v>
+        <v>28.60780611065717</v>
       </c>
       <c r="C19">
-        <v>18.95951020460173</v>
+        <v>19.09044804068289</v>
       </c>
       <c r="D19">
-        <v>5.905703333521541</v>
+        <v>5.96851177110276</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>14.7657880691891</v>
+        <v>14.56997384436315</v>
       </c>
       <c r="G19">
-        <v>16.3403076015147</v>
+        <v>15.53214384310025</v>
       </c>
       <c r="H19">
-        <v>3.105174733080288</v>
+        <v>3.10217380343155</v>
       </c>
       <c r="I19">
-        <v>3.133983280321188</v>
+        <v>3.133430570300142</v>
       </c>
       <c r="J19">
-        <v>7.083221814001547</v>
+        <v>7.71631354638277</v>
       </c>
       <c r="K19">
-        <v>10.67900357882469</v>
+        <v>10.58466723917234</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.642897231240413</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.983035201246787</v>
       </c>
       <c r="N19">
-        <v>8.039823891555939</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.036349180320142</v>
       </c>
       <c r="Q19">
-        <v>10.95805508437529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.8411490660618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.16640280364583</v>
+        <v>29.15900877963923</v>
       </c>
       <c r="C20">
-        <v>17.67755621295483</v>
+        <v>17.96227461921684</v>
       </c>
       <c r="D20">
-        <v>5.741148992175712</v>
+        <v>5.845574316834669</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.07907000704535</v>
+        <v>15.68322575076199</v>
       </c>
       <c r="G20">
-        <v>18.63201528222541</v>
+        <v>17.86149786400375</v>
       </c>
       <c r="H20">
-        <v>2.138705842475165</v>
+        <v>2.125025378748369</v>
       </c>
       <c r="I20">
-        <v>3.232414502287163</v>
+        <v>3.22149277747548</v>
       </c>
       <c r="J20">
-        <v>7.409816582870234</v>
+        <v>7.876464438230555</v>
       </c>
       <c r="K20">
-        <v>11.17197224681978</v>
+        <v>10.9436093808306</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.877711281982085</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.363802931013927</v>
       </c>
       <c r="N20">
-        <v>10.03807362832669</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10.02969086781863</v>
       </c>
       <c r="Q20">
-        <v>11.85985085350873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.58439630517822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.90486525586462</v>
+        <v>30.88580574942385</v>
       </c>
       <c r="C21">
-        <v>18.26108470121487</v>
+        <v>18.56830116347038</v>
       </c>
       <c r="D21">
-        <v>5.988056258213398</v>
+        <v>6.178318960096616</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.69421516102212</v>
+        <v>15.91739207666764</v>
       </c>
       <c r="G21">
-        <v>19.47804041943244</v>
+        <v>20.51610029747691</v>
       </c>
       <c r="H21">
-        <v>2.377444294876272</v>
+        <v>2.342290188574796</v>
       </c>
       <c r="I21">
-        <v>3.420674860101502</v>
+        <v>3.383974990131356</v>
       </c>
       <c r="J21">
-        <v>7.414469302749007</v>
+        <v>7.181552465384508</v>
       </c>
       <c r="K21">
-        <v>10.94247464434465</v>
+        <v>10.59018891401026</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.624081254001657</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.214383833037289</v>
       </c>
       <c r="N21">
-        <v>10.60795574344949</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.58718011456272</v>
       </c>
       <c r="Q21">
-        <v>12.04945394986891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.48389117983569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.98971734398033</v>
+        <v>31.96319006100991</v>
       </c>
       <c r="C22">
-        <v>18.66737239642593</v>
+        <v>18.9782539242495</v>
       </c>
       <c r="D22">
-        <v>6.149651999994956</v>
+        <v>6.396826909706789</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.07215802456326</v>
+        <v>16.03720553488613</v>
       </c>
       <c r="G22">
-        <v>19.98731365432537</v>
+        <v>22.2962266960513</v>
       </c>
       <c r="H22">
-        <v>2.524494044534689</v>
+        <v>2.475814105020592</v>
       </c>
       <c r="I22">
-        <v>3.536145388570542</v>
+        <v>3.48197104641433</v>
       </c>
       <c r="J22">
-        <v>7.414217372037811</v>
+        <v>6.771699277557254</v>
       </c>
       <c r="K22">
-        <v>10.78362838379057</v>
+        <v>10.34491011222726</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.458966914855843</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.11617796414973</v>
       </c>
       <c r="N22">
-        <v>10.87879664886865</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.85045238116015</v>
       </c>
       <c r="Q22">
-        <v>12.16217391841152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.39444494505324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.41568667052155</v>
+        <v>31.39343592293015</v>
       </c>
       <c r="C23">
-        <v>18.42034629414147</v>
+        <v>18.73942014692849</v>
       </c>
       <c r="D23">
-        <v>6.058722622975107</v>
+        <v>6.268440791587755</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.89574274389729</v>
+        <v>16.03146525611758</v>
       </c>
       <c r="G23">
-        <v>19.76086276032512</v>
+        <v>21.18602390034205</v>
       </c>
       <c r="H23">
-        <v>2.44694230491345</v>
+        <v>2.406005696298626</v>
       </c>
       <c r="I23">
-        <v>3.471177310284908</v>
+        <v>3.425684980471248</v>
       </c>
       <c r="J23">
-        <v>7.421979842099695</v>
+        <v>7.046813294118103</v>
       </c>
       <c r="K23">
-        <v>10.8845335494616</v>
+        <v>10.49992111866846</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.559016157534654</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.193556698492807</v>
       </c>
       <c r="N23">
-        <v>10.73542244014913</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.71139830329077</v>
       </c>
       <c r="Q23">
-        <v>12.12138095008651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.48684273128884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.13933728173535</v>
+        <v>29.13193506784001</v>
       </c>
       <c r="C24">
-        <v>17.51019577988734</v>
+        <v>17.80219421014885</v>
       </c>
       <c r="D24">
-        <v>5.710522902407231</v>
+        <v>5.816113381149799</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.19664902825184</v>
+        <v>15.79290092830193</v>
       </c>
       <c r="G24">
-        <v>18.84841630196194</v>
+        <v>18.0464663528279</v>
       </c>
       <c r="H24">
-        <v>2.146111298714703</v>
+        <v>2.132386860094576</v>
       </c>
       <c r="I24">
-        <v>3.226772806059548</v>
+        <v>3.213795015781926</v>
       </c>
       <c r="J24">
-        <v>7.448098866733383</v>
+        <v>7.914062031828468</v>
       </c>
       <c r="K24">
-        <v>11.25213205840181</v>
+        <v>11.01126041952999</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.922096236632276</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.425563780292842</v>
       </c>
       <c r="N24">
-        <v>10.17465945164662</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>10.16633747059002</v>
       </c>
       <c r="Q24">
-        <v>11.95495755874033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.67209329114351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.46456379289107</v>
+        <v>26.46951286039146</v>
       </c>
       <c r="C25">
-        <v>16.47705497844132</v>
+        <v>16.61341631916126</v>
       </c>
       <c r="D25">
-        <v>5.309294581709608</v>
+        <v>5.380312873630587</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.46812871945393</v>
+        <v>15.18644206628198</v>
       </c>
       <c r="G25">
-        <v>17.90960834615639</v>
+        <v>16.9823632654731</v>
       </c>
       <c r="H25">
-        <v>1.808044544510524</v>
+        <v>1.817246030751351</v>
       </c>
       <c r="I25">
-        <v>2.95558302977595</v>
+        <v>2.970420793670978</v>
       </c>
       <c r="J25">
-        <v>7.496003624639802</v>
+        <v>8.027768976243935</v>
       </c>
       <c r="K25">
-        <v>11.67450843060944</v>
+        <v>11.46267327680449</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.27612977930124</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.644684217226972</v>
       </c>
       <c r="N25">
-        <v>9.534613520022184</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.540429134403967</v>
       </c>
       <c r="Q25">
-        <v>11.81840435577925</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.62166320861062</v>
       </c>
     </row>
   </sheetData>
